--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -654,17 +654,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Los Ríos</t>
+          <t>Delegación Presidencial Regional de Los Lagos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AB014</t>
+          <t>AB013</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -693,12 +693,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
+          <t>Delegación Presidencial Regional de Los Ríos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AB015</t>
+          <t>AB014</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2537</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -722,17 +722,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/03/02</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Libertador General Bernardo OHiggins</t>
+          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AB016</t>
+          <t>AB015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>41</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="12">
@@ -756,17 +756,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Tarapacá</t>
+          <t>Delegación Presidencial Regional del Libertador General Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AB017</t>
+          <t>AB016</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -790,17 +790,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Valparaíso</t>
+          <t>Delegación Presidencial Regional de Tarapacá</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AB018</t>
+          <t>AB017</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -824,17 +824,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2023/12/18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Biobío</t>
+          <t>Delegación Presidencial Regional de Valparaíso</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AB019</t>
+          <t>AB018</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -858,17 +858,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Maule</t>
+          <t>Delegación Presidencial Regional del Biobío</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AB020</t>
+          <t>AB019</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -892,17 +892,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional Metropolitana</t>
+          <t>Delegación Presidencial Regional del Maule</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AB021</t>
+          <t>AB020</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -926,17 +926,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tamarugal</t>
+          <t>Delegación Presidencial Regional Metropolitana</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AB025</t>
+          <t>AB021</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -960,17 +960,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de El Loa</t>
+          <t>Delegación Presidencial Provincial de Tamarugal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AB027</t>
+          <t>AB025</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -994,17 +994,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tocopilla</t>
+          <t>Delegación Presidencial Provincial de El Loa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AB028</t>
+          <t>AB027</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Huasco</t>
+          <t>Delegación Presidencial Provincial de Tocopilla</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AB031</t>
+          <t>AB028</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Limarí</t>
+          <t>Delegación Presidencial Provincial de Huasco</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AB033</t>
+          <t>AB031</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Petorca</t>
+          <t>Delegación Presidencial Provincial de Limarí</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AB035</t>
+          <t>AB033</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Felipe</t>
+          <t>Delegación Presidencial Provincial de Petorca</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AB037</t>
+          <t>AB035</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Los Andes</t>
+          <t>Delegación Presidencial Provincial de San Felipe</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AB038</t>
+          <t>AB037</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1198,17 +1198,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Quillota</t>
+          <t>Delegación Presidencial Provincial de Los Andes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AB039</t>
+          <t>AB038</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Antonio</t>
+          <t>Delegación Presidencial Provincial de Quillota</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AB040</t>
+          <t>AB039</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Colchagua</t>
+          <t>Delegación Presidencial Provincial de San Antonio</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AB043</t>
+          <t>AB040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Cardenal Caro</t>
+          <t>Delegación Presidencial Provincial de Colchagua</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AB044</t>
+          <t>AB043</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Curicó</t>
+          <t>Delegación Presidencial Provincial de Cardenal Caro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AB045</t>
+          <t>AB044</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Linares</t>
+          <t>Delegación Presidencial Provincial de Curicó</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AB047</t>
+          <t>AB045</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Cauquenes</t>
+          <t>Delegación Presidencial Provincial de Linares</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AB048</t>
+          <t>AB047</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial del Bíobío</t>
+          <t>Delegación Presidencial Provincial de Cauquenes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AB050</t>
+          <t>AB048</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Arauco</t>
+          <t>Delegación Presidencial Provincial del Bíobío</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AB052</t>
+          <t>AB050</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Malleco</t>
+          <t>Delegación Presidencial Provincial de Arauco</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AB053</t>
+          <t>AB052</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1538,17 +1538,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Ranco</t>
+          <t>Delegación Presidencial Provincial de Malleco</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AB056</t>
+          <t>AB053</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Osorno</t>
+          <t>Delegación Presidencial Provincial de Ranco</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AB057</t>
+          <t>AB056</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chiloé</t>
+          <t>Delegación Presidencial Provincial de Osorno</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AB059</t>
+          <t>AB057</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1640,17 +1640,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Palena</t>
+          <t>Delegación Presidencial Provincial de Chiloé</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AB060</t>
+          <t>AB059</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Aysén</t>
+          <t>Delegación Presidencial Provincial de Palena</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AB062</t>
+          <t>AB060</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1708,17 +1708,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de General Carrera</t>
+          <t>Delegación Presidencial Provincial de Aysén</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AB063</t>
+          <t>AB062</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Capitán Prat</t>
+          <t>Delegación Presidencial Provincial de General Carrera</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AB064</t>
+          <t>AB063</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>164</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de última Esperanza</t>
+          <t>Delegación Presidencial Provincial de Capitán Prat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AB065</t>
+          <t>AB064</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tierra del Fuego</t>
+          <t>Delegación Presidencial Provincial de última Esperanza</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AB067</t>
+          <t>AB065</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
+          <t>Delegación Presidencial Provincial de Tierra del Fuego</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AB068</t>
+          <t>AB067</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1878,17 +1878,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chacabuco</t>
+          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AB069</t>
+          <t>AB068</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Cordillera</t>
+          <t>Delegación Presidencial Provincial de Chacabuco</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AB070</t>
+          <t>AB069</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Maipo</t>
+          <t>Delegación Presidencial Provincial de Cordillera</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AB071</t>
+          <t>AB070</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1980,17 +1980,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Melipilla</t>
+          <t>Delegación Presidencial Provincial de Maipo</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AB073</t>
+          <t>AB071</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022/11/18</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Arica y Parinacota (GORE)</t>
+          <t>Delegación Presidencial Provincial de Melipilla</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AB075</t>
+          <t>AB073</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2022/11/18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Antofagasta (GORE)</t>
+          <t>Gobierno Regional de Arica y Parinacota (GORE)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AB077</t>
+          <t>AB075</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -2082,21 +2082,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
+          <t>Gobierno Regional de Antofagasta (GORE)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>AB079</t>
+          <t>AB077</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2526</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -2116,21 +2116,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>AB079</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>30</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="53">
@@ -2150,30 +2150,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2892</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -2184,30 +2184,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AB085</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2892</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1886</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="55">
@@ -2218,17 +2218,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
+          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AB088</t>
+          <t>AB085</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="56">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Marga Marga</t>
+          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>AB090</t>
+          <t>AB088</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -2286,17 +2286,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Servicio Nacional para la Prevención y Rehabilitación del Consumo de Drogas y Alcohol (SENDA)</t>
+          <t>Delegación Presidencial Provincial de Marga Marga</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AB092</t>
+          <t>AB090</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>135291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Ñuble</t>
+          <t>Servicio Nacional para la Prevención y Rehabilitación del Consumo de Drogas y Alcohol (SENDA)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>AB094</t>
+          <t>AB092</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>71</v>
+        <v>135291</v>
       </c>
     </row>
     <row r="59">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>34</v>
       </c>
       <c r="H80" t="n">
-        <v>603849</v>
+        <v>604703</v>
       </c>
     </row>
     <row r="81">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>509</v>
       </c>
       <c r="H148" t="n">
-        <v>388468</v>
+        <v>389901</v>
       </c>
     </row>
     <row r="149">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>8</v>
       </c>
       <c r="H157" t="n">
-        <v>7813</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="158">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>40914</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="186">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>362</v>
       </c>
       <c r="H199" t="n">
-        <v>16770</v>
+        <v>17155</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>6</v>
       </c>
       <c r="H200" t="n">
-        <v>34942</v>
+        <v>35120</v>
       </c>
     </row>
     <row r="201">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>5086</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="204">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>2960</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="222">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="H222" t="n">
-        <v>3636</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="223">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="n">
-        <v>85312</v>
+        <v>86635</v>
       </c>
     </row>
     <row r="238">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>426</v>
       </c>
       <c r="H266" t="n">
-        <v>95124</v>
+        <v>95129</v>
       </c>
     </row>
     <row r="267">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>52833</v>
+        <v>52943</v>
       </c>
     </row>
     <row r="272">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>84</v>
       </c>
       <c r="H280" t="n">
-        <v>145777</v>
+        <v>147195</v>
       </c>
     </row>
     <row r="281">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>217</v>
       </c>
       <c r="H290" t="n">
-        <v>39621</v>
+        <v>39821</v>
       </c>
     </row>
     <row r="291">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>30</v>
       </c>
       <c r="H312" t="n">
-        <v>1561</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="313">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>18244</v>
+        <v>18326</v>
       </c>
     </row>
     <row r="345">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>15461</v>
+        <v>16239</v>
       </c>
     </row>
     <row r="378">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>19331</v>
+        <v>19605</v>
       </c>
     </row>
     <row r="380">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>63</v>
       </c>
       <c r="H392" t="n">
-        <v>270610</v>
+        <v>270961</v>
       </c>
     </row>
     <row r="393">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>7497</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="409">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="577">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>3</v>
       </c>
       <c r="H605" t="n">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H605"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>34</v>
       </c>
       <c r="H80" t="n">
-        <v>604703</v>
+        <v>606958</v>
       </c>
     </row>
     <row r="81">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>1998</v>
       </c>
       <c r="H95" t="n">
-        <v>42248</v>
+        <v>45510</v>
       </c>
     </row>
     <row r="96">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>509</v>
       </c>
       <c r="H148" t="n">
-        <v>389901</v>
+        <v>390214</v>
       </c>
     </row>
     <row r="149">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>20186</v>
+        <v>20213</v>
       </c>
     </row>
     <row r="150">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>6428</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="168">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>12</v>
       </c>
       <c r="H176" t="n">
-        <v>3061</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="177">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>41695</v>
+        <v>41711</v>
       </c>
     </row>
     <row r="186">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>6747</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="188">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>35</v>
       </c>
       <c r="H197" t="n">
-        <v>8146</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="198">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>4537</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="202">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>25</v>
       </c>
       <c r="H210" t="n">
-        <v>44857</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="211">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>32</v>
       </c>
       <c r="H229" t="n">
-        <v>23904</v>
+        <v>24287</v>
       </c>
     </row>
     <row r="230">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2023/08/09</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>26423</v>
+        <v>28276</v>
       </c>
     </row>
     <row r="257">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>306</v>
       </c>
       <c r="H259" t="n">
-        <v>16990</v>
+        <v>17224</v>
       </c>
     </row>
     <row r="260">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>1949</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="276">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>54</v>
       </c>
       <c r="H299" t="n">
-        <v>55033</v>
+        <v>55191</v>
       </c>
     </row>
     <row r="300">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>4</v>
       </c>
       <c r="H302" t="n">
-        <v>130478</v>
+        <v>132136</v>
       </c>
     </row>
     <row r="303">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>33892</v>
+        <v>34107</v>
       </c>
     </row>
     <row r="325">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>18423</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="377">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>216</v>
       </c>
       <c r="H389" t="n">
-        <v>189877</v>
+        <v>190171</v>
       </c>
     </row>
     <row r="390">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>63</v>
       </c>
       <c r="H392" t="n">
-        <v>270961</v>
+        <v>271244</v>
       </c>
     </row>
     <row r="393">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>38292</v>
+        <v>40018</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>152</v>
       </c>
       <c r="H410" t="n">
-        <v>7629</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="411">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2020/10/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>8147</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="449">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="498">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>2</v>
       </c>
       <c r="H502" t="n">
-        <v>1172</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="503">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539">
@@ -18679,12 +18679,12 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540">
@@ -18708,30 +18708,30 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E540" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G540" t="n">
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="541">
@@ -18742,30 +18742,30 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="542">
@@ -18776,21 +18776,21 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F542" t="n">
         <v>0</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="543">
@@ -18810,21 +18810,21 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F543" t="n">
         <v>0</v>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="545">
@@ -18878,17 +18878,17 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Deporte Rancagua</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -18946,17 +18946,17 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18980,17 +18980,17 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -19014,17 +19014,17 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -19082,17 +19082,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -19116,17 +19116,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -19359,25 +19359,25 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E559" t="n">
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G559" t="n">
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="560">
@@ -19388,30 +19388,30 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E560" t="n">
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G560" t="n">
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2023/12/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562">
@@ -19456,17 +19456,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2023/12/09</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -19524,30 +19524,30 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E564" t="n">
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="565">
@@ -19558,30 +19558,30 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E565" t="n">
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G565" t="n">
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="566">
@@ -19592,17 +19592,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19631,12 +19631,12 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19728,17 +19728,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="573">
@@ -19830,17 +19830,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>255</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575">
@@ -19898,17 +19898,17 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="576">
@@ -19932,30 +19932,30 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E576" t="n">
         <v>0</v>
       </c>
       <c r="F576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G576" t="n">
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>588</v>
+        <v>255</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>362</v>
+        <v>110</v>
       </c>
     </row>
     <row r="578">
@@ -20000,30 +20000,30 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E578" t="n">
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>435</v>
+        <v>588</v>
       </c>
     </row>
     <row r="579">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>18</v>
+        <v>362</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/09</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>1640</v>
+        <v>435</v>
       </c>
     </row>
     <row r="581">
@@ -20102,30 +20102,30 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E581" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>760</v>
+        <v>18</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="583">
@@ -20170,30 +20170,30 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F583" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H583" t="n">
-        <v>465</v>
+        <v>760</v>
       </c>
     </row>
     <row r="584">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>19</v>
+        <v>465</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587">
@@ -20311,12 +20311,12 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>126</v>
+        <v>19</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20394,10 +20394,10 @@
         <v>0</v>
       </c>
       <c r="G589" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>1200</v>
+        <v>126</v>
       </c>
     </row>
     <row r="590">
@@ -20408,17 +20408,17 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="591">
@@ -20447,12 +20447,12 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20462,10 +20462,10 @@
         <v>0</v>
       </c>
       <c r="G591" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H591" t="n">
-        <v>18</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="592">
@@ -20476,17 +20476,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>186</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="594">
@@ -20544,21 +20544,21 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/03/09</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594" t="n">
         <v>0</v>
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>485</v>
+        <v>186</v>
       </c>
     </row>
     <row r="595">
@@ -20578,21 +20578,21 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F595" t="n">
         <v>0</v>
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>800</v>
+        <v>19</v>
       </c>
     </row>
     <row r="596">
@@ -20612,21 +20612,21 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F596" t="n">
         <v>0</v>
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>24</v>
+        <v>485</v>
       </c>
     </row>
     <row r="597">
@@ -20646,30 +20646,30 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E597" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F597" t="n">
         <v>0</v>
       </c>
       <c r="G597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>2658</v>
+        <v>800</v>
       </c>
     </row>
     <row r="598">
@@ -20680,17 +20680,17 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="599">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20734,10 +20734,10 @@
         <v>0</v>
       </c>
       <c r="G599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H599" t="n">
-        <v>23</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="600">
@@ -20748,17 +20748,17 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/07</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601">
@@ -20782,17 +20782,17 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="604">
@@ -20884,17 +20884,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605">
@@ -20918,29 +20918,97 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>0</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0</v>
+      </c>
+      <c r="G605" t="n">
+        <v>0</v>
+      </c>
+      <c r="H605" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0</v>
+      </c>
+      <c r="G606" t="n">
+        <v>0</v>
+      </c>
+      <c r="H606" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C605" t="inlineStr">
+      <c r="C607" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D605" t="inlineStr">
+      <c r="D607" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E605" t="n">
-        <v>0</v>
-      </c>
-      <c r="F605" t="n">
-        <v>0</v>
-      </c>
-      <c r="G605" t="n">
+      <c r="E607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0</v>
+      </c>
+      <c r="G607" t="n">
         <v>3</v>
       </c>
-      <c r="H605" t="n">
+      <c r="H607" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H607"/>
+  <dimension ref="A1:H612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>703</v>
       </c>
       <c r="H2" t="n">
-        <v>12514</v>
+        <v>12551</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>225462</v>
+        <v>227904</v>
       </c>
     </row>
     <row r="70">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>10105</v>
+        <v>10402</v>
       </c>
     </row>
     <row r="76">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>5035</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="84">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>42</v>
       </c>
       <c r="H122" t="n">
-        <v>14236</v>
+        <v>14327</v>
       </c>
     </row>
     <row r="123">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>8130</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="143">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5400,10 +5400,10 @@
         <v>501</v>
       </c>
       <c r="G148" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H148" t="n">
-        <v>390214</v>
+        <v>394183</v>
       </c>
     </row>
     <row r="149">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5496,16 +5496,16 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
-        <v>1099</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="152">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>266</v>
       </c>
       <c r="H161" t="n">
-        <v>112973</v>
+        <v>115231</v>
       </c>
     </row>
     <row r="162">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>6440</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="168">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>6728</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="173">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/01/29</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>3248</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>57</v>
       </c>
       <c r="H192" t="n">
-        <v>61247</v>
+        <v>61953</v>
       </c>
     </row>
     <row r="193">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>299</v>
       </c>
       <c r="H198" t="n">
-        <v>51871</v>
+        <v>52553</v>
       </c>
     </row>
     <row r="199">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>5146</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="204">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>25</v>
       </c>
       <c r="H210" t="n">
-        <v>45600</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>2669</v>
       </c>
       <c r="H211" t="n">
-        <v>50994</v>
+        <v>51622</v>
       </c>
     </row>
     <row r="212">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2667</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="215">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>3259</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="217">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="n">
-        <v>6124</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="219">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>32592</v>
+        <v>32649</v>
       </c>
     </row>
     <row r="242">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>10</v>
       </c>
       <c r="H255" t="n">
-        <v>18749</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="256">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>52943</v>
+        <v>53671</v>
       </c>
     </row>
     <row r="272">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>179</v>
       </c>
       <c r="H289" t="n">
-        <v>36795</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="290">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>34994</v>
+        <v>35171</v>
       </c>
     </row>
     <row r="293">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>104</v>
       </c>
       <c r="H296" t="n">
-        <v>49937</v>
+        <v>49954</v>
       </c>
     </row>
     <row r="297">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>14429</v>
+        <v>14518</v>
       </c>
     </row>
     <row r="299">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>4</v>
       </c>
       <c r="H302" t="n">
-        <v>132136</v>
+        <v>133888</v>
       </c>
     </row>
     <row r="303">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11149,7 +11149,7 @@
         <v>638</v>
       </c>
       <c r="H317" t="n">
-        <v>196225</v>
+        <v>197955</v>
       </c>
     </row>
     <row r="318">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>14960</v>
+        <v>15221</v>
       </c>
     </row>
     <row r="335">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>18326</v>
+        <v>18465</v>
       </c>
     </row>
     <row r="345">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>628</v>
       </c>
       <c r="H346" t="n">
-        <v>41512</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="347">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>1091</v>
       </c>
       <c r="H348" t="n">
-        <v>49882</v>
+        <v>49906</v>
       </c>
     </row>
     <row r="349">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="H354" t="n">
-        <v>3994</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="355">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>11438</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="357">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>35</v>
       </c>
       <c r="H360" t="n">
-        <v>60698</v>
+        <v>60839</v>
       </c>
     </row>
     <row r="361">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>11</v>
       </c>
       <c r="H363" t="n">
-        <v>20980</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="364">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>130006</v>
+        <v>131402</v>
       </c>
     </row>
     <row r="373">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>73032</v>
+        <v>73058</v>
       </c>
     </row>
     <row r="398">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="n">
-        <v>34573</v>
+        <v>34581</v>
       </c>
     </row>
     <row r="408">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14339,13 +14339,13 @@
         <v>0</v>
       </c>
       <c r="F411" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G411" t="n">
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>9546</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="412">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>288</v>
       </c>
       <c r="H418" t="n">
-        <v>18828</v>
+        <v>18853</v>
       </c>
     </row>
     <row r="419">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F426" t="n">
         <v>1</v>
@@ -14855,7 +14855,7 @@
         <v>1749</v>
       </c>
       <c r="H426" t="n">
-        <v>234374</v>
+        <v>234470</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>2037</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="428">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>40892</v>
+        <v>41067</v>
       </c>
     </row>
     <row r="440">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>20</v>
       </c>
       <c r="H442" t="n">
-        <v>18852</v>
+        <v>18929</v>
       </c>
     </row>
     <row r="443">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450">
@@ -15716,17 +15716,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Huasco</t>
+          <t>Delegación Presidencial Provincial de Chañaral</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>AB031</t>
+          <t>AB029</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -15755,12 +15755,12 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial del Bíobío</t>
+          <t>Delegación Presidencial Provincial de Huasco</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>AB050</t>
+          <t>AB031</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15784,17 +15784,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Ranco</t>
+          <t>Delegación Presidencial Provincial del Bíobío</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>AB056</t>
+          <t>AB050</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455">
@@ -15818,17 +15818,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Aysén</t>
+          <t>Delegación Presidencial Provincial de Ranco</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AB062</t>
+          <t>AB056</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -15852,17 +15852,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de última Esperanza</t>
+          <t>Delegación Presidencial Provincial de Aysén</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>AB065</t>
+          <t>AB062</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -15886,17 +15886,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Tarapacá (GORE)</t>
+          <t>Delegación Presidencial Provincial de última Esperanza</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>AB076</t>
+          <t>AB065</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -15920,17 +15920,17 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Atacama (GORE)</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>AB078</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -15954,17 +15954,17 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
+          <t>Gobierno Regional de Atacama (GORE)</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>AB081</t>
+          <t>AB078</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -15974,10 +15974,10 @@
         <v>0</v>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>180</v>
+        <v>58</v>
       </c>
     </row>
     <row r="460">
@@ -15988,17 +15988,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
+          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>AB082</t>
+          <t>AB081</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -16008,10 +16008,10 @@
         <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H460" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="461">
@@ -16022,17 +16022,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2023/10/05</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>AB082</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="462">
@@ -16056,17 +16056,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463">
@@ -16090,17 +16090,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464">
@@ -16124,17 +16124,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Subsecretaría de Prevención del Delito</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>AB091</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -16163,12 +16163,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Ñuble (GORE)</t>
+          <t>Subsecretaría de Prevención del Delito</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>AB098</t>
+          <t>AB091</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -16178,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="G465" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466">
@@ -16197,12 +16197,12 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
+          <t>Gobierno Regional de Ñuble (GORE)</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>AD015</t>
+          <t>AB098</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -16212,10 +16212,10 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H466" t="n">
-        <v>355</v>
+        <v>57</v>
       </c>
     </row>
     <row r="467">
@@ -16226,21 +16226,21 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
+          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>AD016</t>
+          <t>AD015</t>
         </is>
       </c>
       <c r="E467" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F467" t="n">
         <v>0</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>110</v>
+        <v>355</v>
       </c>
     </row>
     <row r="468">
@@ -16260,21 +16260,21 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Subsecretaría de Hacienda</t>
+          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>AE001</t>
+          <t>AD016</t>
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F468" t="n">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="469">
@@ -16294,17 +16294,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Dirección Nacional del Servicio Civil</t>
+          <t>Subsecretaría de Hacienda</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>AE004</t>
+          <t>AE001</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="470">
@@ -16328,17 +16328,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Unidad de Análisis Financiero</t>
+          <t>Dirección Nacional del Servicio Civil</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>AE005</t>
+          <t>AE004</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="471">
@@ -16367,12 +16367,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
+          <t>Unidad de Análisis Financiero</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>AE009</t>
+          <t>AE005</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -16382,10 +16382,10 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="472">
@@ -16396,17 +16396,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Superintendencia de Casinos de Juego (SCJ)</t>
+          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AE012</t>
+          <t>AE009</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -16416,10 +16416,10 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H472" t="n">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="473">
@@ -16430,17 +16430,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
+          <t>Superintendencia de Casinos de Juego (SCJ)</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>AE013</t>
+          <t>AE012</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="474">
@@ -16464,17 +16464,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Defensoría del Contribuyente</t>
+          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>AE033</t>
+          <t>AE013</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="475">
@@ -16498,17 +16498,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
+          <t>Defensoría del Contribuyente</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>AG001</t>
+          <t>AE033</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476">
@@ -16532,17 +16532,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Estadisticas (INE)</t>
+          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>AH007</t>
+          <t>AG001</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477">
@@ -16566,17 +16566,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
+          <t>Instituto Nacional de Estadisticas (INE)</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>AH010</t>
+          <t>AH007</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="478">
@@ -16600,17 +16600,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
+          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>AH012</t>
+          <t>AH010</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="479">
@@ -16634,17 +16634,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
+          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>AH013</t>
+          <t>AH012</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="480">
@@ -16668,17 +16668,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Subsecretaria de Evaluación Social</t>
+          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>AH013</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="481">
@@ -16702,17 +16702,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Subsecretaría de Servicios Sociales</t>
+          <t>Subsecretaria de Evaluación Social</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>AI008</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>293</v>
+        <v>52</v>
       </c>
     </row>
     <row r="482">
@@ -16736,21 +16736,21 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Subsecretaría de Servicios Sociales</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>AI008</t>
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
         <v>0</v>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>455</v>
+        <v>293</v>
       </c>
     </row>
     <row r="483">
@@ -16770,21 +16770,21 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Consejo de Rectores</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>AJ002</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F483" t="n">
         <v>0</v>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484">
@@ -16804,17 +16804,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Educación (CNED)</t>
+          <t>Consejo de Rectores</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>AJ003</t>
+          <t>AJ002</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -16838,17 +16838,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Barrancas</t>
+          <t>Consejo Nacional de Educación (CNED)</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>AJ016</t>
+          <t>AJ003</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>216</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486">
@@ -16872,17 +16872,17 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Huasco</t>
+          <t>Servicio Local de Educación Pública de Barrancas</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>AJ019</t>
+          <t>AJ016</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>718</v>
+        <v>216</v>
       </c>
     </row>
     <row r="487">
@@ -16906,17 +16906,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Costa Araucanía</t>
+          <t>Servicio Local de Educación Pública Huasco</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>AJ020</t>
+          <t>AJ019</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>13</v>
+        <v>718</v>
       </c>
     </row>
     <row r="488">
@@ -16940,17 +16940,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2020/05/11</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Superintendencia de Educación Superior</t>
+          <t>Servicio Local de Educación Pública Costa Araucanía</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>AJ021</t>
+          <t>AJ020</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -16960,10 +16960,10 @@
         <v>0</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="489">
@@ -16974,17 +16974,17 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2020/05/11</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Magallanes</t>
+          <t>Superintendencia de Educación Superior</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>AJ030</t>
+          <t>AJ021</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -16994,10 +16994,10 @@
         <v>0</v>
       </c>
       <c r="G489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H489" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -17008,17 +17008,17 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Iquique</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>AJ032</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="491">
@@ -17042,17 +17042,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+          <t>Servicio Local de Educación Pública de Iquique</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>AJ033</t>
+          <t>AJ032</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="492">
@@ -17076,17 +17076,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública  Maule Costa</t>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>AJ034</t>
+          <t>AJ033</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493">
@@ -17110,17 +17110,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
+          <t>Servicio Local de Educación Pública  Maule Costa</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>AK010</t>
+          <t>AJ034</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="494">
@@ -17144,17 +17144,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Instituto de Previsión Social (IPS)</t>
+          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>AL005</t>
+          <t>AK010</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -17178,17 +17178,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Instituto de Seguridad Laboral (ISL)</t>
+          <t>Instituto de Previsión Social (IPS)</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>AL006</t>
+          <t>AL005</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="496">
@@ -17212,17 +17212,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
+          <t>Instituto de Seguridad Laboral (ISL)</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>AL007</t>
+          <t>AL006</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>67</v>
+        <v>314</v>
       </c>
     </row>
     <row r="497">
@@ -17246,17 +17246,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Superintendencia de Pensiones (SP)</t>
+          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>AL008</t>
+          <t>AL007</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -17280,17 +17280,17 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
+          <t>Superintendencia de Pensiones (SP)</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>AO003</t>
+          <t>AL008</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>6675</v>
+        <v>67</v>
       </c>
     </row>
     <row r="499">
@@ -17319,12 +17319,12 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Tarapacá</t>
+          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>AO040</t>
+          <t>AO003</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>10</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="500">
@@ -17348,17 +17348,17 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Servicio de Salud Bíobío</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>AO029</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="501">
@@ -17382,17 +17382,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>SEREMI de Salud  de Tarapacá</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>AO040</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -17416,17 +17416,17 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Hospital Regional Coyhaique</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>AO059</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -17436,10 +17436,10 @@
         <v>0</v>
       </c>
       <c r="G502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>1221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="503">
@@ -17450,17 +17450,17 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>AO082</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="504">
@@ -17484,17 +17484,17 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Hospital Herminda Martin</t>
+          <t>Hospital Regional Coyhaique</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>AO104</t>
+          <t>AO059</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -17504,10 +17504,10 @@
         <v>0</v>
       </c>
       <c r="G504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H504" t="n">
-        <v>20</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="505">
@@ -17518,17 +17518,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>AO082</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="506">
@@ -17552,17 +17552,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>SERVIU Región de Antofagasta</t>
+          <t>Hospital Herminda Martin</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>AP003</t>
+          <t>AO104</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="507">
@@ -17586,17 +17586,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>SERVIU Metropolitano</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>AP007</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="508">
@@ -17620,17 +17620,17 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2018/02/14</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
+          <t>SERVIU Región de Antofagasta</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>AP008</t>
+          <t>AP003</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -17640,10 +17640,10 @@
         <v>0</v>
       </c>
       <c r="G508" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -17654,17 +17654,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
+          <t>SERVIU Metropolitano</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>AP014</t>
+          <t>AP007</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="510">
@@ -17693,12 +17693,12 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>SERVIU Región de Arica y Parinacota</t>
+          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>AP016</t>
+          <t>AP008</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -17708,10 +17708,10 @@
         <v>0</v>
       </c>
       <c r="G510" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H510" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="511">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2018/09/13</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Subsecretaría de Agricultura</t>
+          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>AR001</t>
+          <t>AP014</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Riego (CNR)</t>
+          <t>SERVIU Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>AR002</t>
+          <t>AP016</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>203</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513">
@@ -17790,30 +17790,30 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
+          <t>Subsecretaría de Agricultura</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>AR005</t>
+          <t>AR001</t>
         </is>
       </c>
       <c r="E513" t="n">
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" t="n">
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>114</v>
+        <v>275</v>
       </c>
     </row>
     <row r="514">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
+          <t>Comisión Nacional de Riego (CNR)</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>AT001</t>
+          <t>AR002</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row r="515">
@@ -17858,30 +17858,30 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
+          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>AY001</t>
+          <t>AR005</t>
         </is>
       </c>
       <c r="E515" t="n">
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G515" t="n">
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="516">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Subsecretaría del Deporte</t>
+          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>BA001</t>
+          <t>AT001</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517">
@@ -17926,17 +17926,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Subsecretaría del Patrimonio Cultural</t>
+          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>BC002</t>
+          <t>AY001</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17960,17 +17960,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Subsecretaría del Deporte</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>BA001</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
@@ -17994,17 +17994,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>CFT Estatal de la Región del Maule</t>
+          <t>Subsecretaría del Patrimonio Cultural</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>CF002</t>
+          <t>BC002</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="520">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>CFT de la Región del Tarapacá</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>CF003</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="521">
@@ -18062,17 +18062,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>CFT de la Región de Los Ríos</t>
+          <t>CFT Estatal de la Región del Maule</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>CF004</t>
+          <t>CF002</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>CFT de la Región de los Lagos</t>
+          <t>CFT de la Región del Tarapacá</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>CF005</t>
+          <t>CF003</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523">
@@ -18130,17 +18130,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>CFT de la Región de Los Ríos</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>CF006</t>
+          <t>CF004</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="524">
@@ -18164,30 +18164,30 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>CFT de la Región de Antofagasta</t>
+          <t>CFT de la Región de los Lagos</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>CF009</t>
+          <t>CF005</t>
         </is>
       </c>
       <c r="E524" t="n">
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" t="n">
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="525">
@@ -18198,30 +18198,30 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
+          <t>CFT de la Región de Coquimbo</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>CM002</t>
+          <t>CF006</t>
         </is>
       </c>
       <c r="E525" t="n">
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" t="n">
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="526">
@@ -18232,30 +18232,30 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Corporación Municipal Isla de Maipo</t>
+          <t>CFT de la Región de Antofagasta</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>CM003</t>
+          <t>CF009</t>
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G526" t="n">
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="527">
@@ -18266,30 +18266,30 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Rancagua (CORMUN)</t>
+          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>CM008</t>
+          <t>CM002</t>
         </is>
       </c>
       <c r="E527" t="n">
         <v>0</v>
       </c>
       <c r="F527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G527" t="n">
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="528">
@@ -18300,21 +18300,21 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
+          <t>Corporación Municipal Isla de Maipo</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>CM009</t>
+          <t>CM003</t>
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F528" t="n">
         <v>0</v>
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+          <t>Corporación Municipal de Rancagua (CORMUN)</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>CM010</t>
+          <t>CM008</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="530">
@@ -18368,17 +18368,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Castro</t>
+          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>CM011</t>
+          <t>CM009</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="531">
@@ -18402,30 +18402,30 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Valparaíso</t>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>CM015</t>
+          <t>CM010</t>
         </is>
       </c>
       <c r="E531" t="n">
         <v>0</v>
       </c>
       <c r="F531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G531" t="n">
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="532">
@@ -18436,17 +18436,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Corporación Municipal de La Reina</t>
+          <t>Corporación Municipal de Castro</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>CM017</t>
+          <t>CM011</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533">
@@ -18470,30 +18470,30 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quilpué</t>
+          <t>Corporación Municipal de Valparaíso</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>CM019</t>
+          <t>CM015</t>
         </is>
       </c>
       <c r="E533" t="n">
         <v>0</v>
       </c>
       <c r="F533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G533" t="n">
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>374</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -18504,17 +18504,17 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+          <t>Corporación Municipal de La Reina</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>CM020</t>
+          <t>CM017</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -18538,17 +18538,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
+          <t>Corporación Municipal de Quilpué</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>CM022</t>
+          <t>CM019</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>374</v>
       </c>
     </row>
     <row r="536">
@@ -18572,17 +18572,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Ancud</t>
+          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>CM024</t>
+          <t>CM020</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Buin</t>
+          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>CM025</t>
+          <t>CM022</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación Municipal de Ancud</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM024</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539">
@@ -18674,17 +18674,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541">
@@ -18742,30 +18742,30 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E541" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="543">
@@ -18810,30 +18810,30 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G543" t="n">
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545">
@@ -18878,21 +18878,21 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F545" t="n">
         <v>0</v>
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="547">
@@ -18946,17 +18946,17 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Deporte Rancagua</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548">
@@ -18980,17 +18980,17 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -19014,17 +19014,17 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19082,17 +19082,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552">
@@ -19121,12 +19121,12 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -19354,17 +19354,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="560">
@@ -19388,30 +19388,30 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E560" t="n">
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G560" t="n">
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562">
@@ -19456,30 +19456,30 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2023/12/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E562" t="n">
         <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G562" t="n">
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="564">
@@ -19524,17 +19524,17 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2023/12/09</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="565">
@@ -19558,30 +19558,30 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E565" t="n">
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G565" t="n">
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -19592,17 +19592,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="567">
@@ -19626,30 +19626,30 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E567" t="n">
         <v>0</v>
       </c>
       <c r="F567" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G567" t="n">
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="568">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -19699,12 +19699,12 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19728,17 +19728,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573">
@@ -19830,17 +19830,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="575">
@@ -19898,17 +19898,17 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576">
@@ -19932,17 +19932,17 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>255</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578">
@@ -20000,30 +20000,30 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E578" t="n">
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>588</v>
+        <v>255</v>
       </c>
     </row>
     <row r="579">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>362</v>
+        <v>110</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU029</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581">
@@ -20102,30 +20102,30 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E581" t="n">
         <v>0</v>
       </c>
       <c r="F581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G581" t="n">
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>18</v>
+        <v>588</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>1640</v>
+        <v>400</v>
       </c>
     </row>
     <row r="583">
@@ -20170,30 +20170,30 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E583" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>760</v>
+        <v>435</v>
       </c>
     </row>
     <row r="584">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>465</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="586">
@@ -20272,30 +20272,30 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F586" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H586" t="n">
-        <v>6</v>
+        <v>780</v>
       </c>
     </row>
     <row r="587">
@@ -20306,17 +20306,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>5</v>
+        <v>465</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="590">
@@ -20408,17 +20408,17 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="591">
@@ -20447,12 +20447,12 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20462,10 +20462,10 @@
         <v>0</v>
       </c>
       <c r="G591" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>1200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592">
@@ -20476,17 +20476,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20564,10 +20564,10 @@
         <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H594" t="n">
-        <v>186</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="595">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596">
@@ -20612,21 +20612,21 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F596" t="n">
         <v>0</v>
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>485</v>
+        <v>18</v>
       </c>
     </row>
     <row r="597">
@@ -20646,21 +20646,21 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/03/09</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F597" t="n">
         <v>0</v>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>800</v>
+        <v>186</v>
       </c>
     </row>
     <row r="598">
@@ -20680,17 +20680,17 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="599">
@@ -20719,12 +20719,12 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20734,10 +20734,10 @@
         <v>0</v>
       </c>
       <c r="G599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>2658</v>
+        <v>19</v>
       </c>
     </row>
     <row r="600">
@@ -20748,21 +20748,21 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F600" t="n">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>4</v>
+        <v>485</v>
       </c>
     </row>
     <row r="601">
@@ -20782,21 +20782,21 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F601" t="n">
         <v>0</v>
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>23</v>
+        <v>800</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="603">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20870,10 +20870,10 @@
         <v>0</v>
       </c>
       <c r="G603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H603" t="n">
-        <v>50</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="604">
@@ -20884,17 +20884,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/02/07</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="606">
@@ -20952,17 +20952,17 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -20986,29 +20986,199 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Municipalidad de Tome</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>MU324</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H607" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Municipalidad de Villa Alegre</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>MU337</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>0</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0</v>
+      </c>
+      <c r="G608" t="n">
+        <v>0</v>
+      </c>
+      <c r="H608" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2023/09/20</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Municipalidad de Vitacura</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>MU341</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0</v>
+      </c>
+      <c r="G609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H609" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>0</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0</v>
+      </c>
+      <c r="G610" t="n">
+        <v>0</v>
+      </c>
+      <c r="H610" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>0</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H611" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr">
+      <c r="C612" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D607" t="inlineStr">
+      <c r="D612" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E607" t="n">
-        <v>0</v>
-      </c>
-      <c r="F607" t="n">
-        <v>0</v>
-      </c>
-      <c r="G607" t="n">
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
+      </c>
+      <c r="G612" t="n">
         <v>3</v>
       </c>
-      <c r="H607" t="n">
+      <c r="H612" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H620"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>34</v>
       </c>
       <c r="H79" t="n">
-        <v>610401</v>
+        <v>611472</v>
       </c>
     </row>
     <row r="80">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>1998</v>
       </c>
       <c r="H94" t="n">
-        <v>45510</v>
+        <v>47104</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>10249</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="131">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>2097</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="132">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="H145" t="n">
-        <v>23255</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="146">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>507</v>
       </c>
       <c r="H148" t="n">
-        <v>398188</v>
+        <v>401049</v>
       </c>
     </row>
     <row r="149">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>266</v>
       </c>
       <c r="H161" t="n">
-        <v>115427</v>
+        <v>115553</v>
       </c>
     </row>
     <row r="162">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>118</v>
       </c>
       <c r="H168" t="n">
-        <v>17849</v>
+        <v>18178</v>
       </c>
     </row>
     <row r="169">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>94</v>
       </c>
       <c r="H171" t="n">
-        <v>64408</v>
+        <v>65472</v>
       </c>
     </row>
     <row r="172">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>14974</v>
+        <v>15262</v>
       </c>
     </row>
     <row r="175">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>16</v>
       </c>
       <c r="H181" t="n">
-        <v>2397</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="182">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>22223</v>
+        <v>22267</v>
       </c>
     </row>
     <row r="183">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>57</v>
       </c>
       <c r="H192" t="n">
-        <v>62292</v>
+        <v>62311</v>
       </c>
     </row>
     <row r="193">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>9343</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="194">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>28</v>
       </c>
       <c r="H196" t="n">
-        <v>232827</v>
+        <v>234532</v>
       </c>
     </row>
     <row r="197">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>362</v>
       </c>
       <c r="H199" t="n">
-        <v>17155</v>
+        <v>17174</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>6</v>
       </c>
       <c r="H200" t="n">
-        <v>35646</v>
+        <v>35783</v>
       </c>
     </row>
     <row r="201">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>10356</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="206">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>3995</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="213">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>68</v>
       </c>
       <c r="H215" t="n">
-        <v>12025</v>
+        <v>12247</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>5134</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="218">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>25629</v>
+        <v>25872</v>
       </c>
     </row>
     <row r="224">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="n">
-        <v>86635</v>
+        <v>87304</v>
       </c>
     </row>
     <row r="238">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>8743</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="240">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>30332</v>
+        <v>30382</v>
       </c>
     </row>
     <row r="247">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>40055</v>
+        <v>40517</v>
       </c>
     </row>
     <row r="259">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>426</v>
       </c>
       <c r="H266" t="n">
-        <v>95994</v>
+        <v>95999</v>
       </c>
     </row>
     <row r="267">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9440,7 +9440,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="F267" t="n">
         <v>17</v>
@@ -9449,7 +9449,7 @@
         <v>24</v>
       </c>
       <c r="H267" t="n">
-        <v>33644</v>
+        <v>34094</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>43</v>
       </c>
       <c r="H268" t="n">
-        <v>19624</v>
+        <v>19960</v>
       </c>
     </row>
     <row r="269">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>18233</v>
+        <v>18708</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>84</v>
       </c>
       <c r="H280" t="n">
-        <v>147195</v>
+        <v>149018</v>
       </c>
     </row>
     <row r="281">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>7885</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="285">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>87411</v>
+        <v>87837</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>78959</v>
+        <v>79596</v>
       </c>
     </row>
     <row r="309">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>298</v>
       </c>
       <c r="H322" t="n">
-        <v>11919</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="323">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>34107</v>
+        <v>34279</v>
       </c>
     </row>
     <row r="325">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>15221</v>
+        <v>15301</v>
       </c>
     </row>
     <row r="335">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>23965</v>
+        <v>24018</v>
       </c>
     </row>
     <row r="351">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>3049</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="359">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>11</v>
       </c>
       <c r="H363" t="n">
-        <v>21163</v>
+        <v>21199</v>
       </c>
     </row>
     <row r="364">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>6693</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="367">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>2627</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>2</v>
       </c>
       <c r="H383" t="n">
-        <v>30282</v>
+        <v>30461</v>
       </c>
     </row>
     <row r="384">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>216</v>
       </c>
       <c r="H389" t="n">
-        <v>191459</v>
+        <v>192188</v>
       </c>
     </row>
     <row r="390">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>46</v>
       </c>
       <c r="H393" t="n">
-        <v>20017</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="394">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>73219</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="398">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>417</v>
       </c>
       <c r="H400" t="n">
-        <v>232696</v>
+        <v>234652</v>
       </c>
     </row>
     <row r="401">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>7498</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="409">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>152</v>
       </c>
       <c r="H410" t="n">
-        <v>7760</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="411">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>4844</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="418">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>70</v>
       </c>
       <c r="H430" t="n">
-        <v>20532</v>
+        <v>20805</v>
       </c>
     </row>
     <row r="431">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>158</v>
       </c>
       <c r="H437" t="n">
-        <v>17350</v>
+        <v>17567</v>
       </c>
     </row>
     <row r="438">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>8170</v>
+        <v>17486</v>
       </c>
     </row>
     <row r="449">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="462">
@@ -16056,17 +16056,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
+          <t>Gobierno Regional de Valparaíso  (GORE)</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>AB081</t>
+          <t>AB080</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -16076,10 +16076,10 @@
         <v>0</v>
       </c>
       <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="n">
         <v>2</v>
-      </c>
-      <c r="H462" t="n">
-        <v>185</v>
       </c>
     </row>
     <row r="463">
@@ -16090,17 +16090,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
+          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>AB082</t>
+          <t>AB081</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -16110,10 +16110,10 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H463" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="464">
@@ -16124,17 +16124,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2023/10/05</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>AB082</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="465">
@@ -16158,17 +16158,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466">
@@ -16192,17 +16192,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467">
@@ -16226,17 +16226,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Marga Marga</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>AB090</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -16260,17 +16260,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Subsecretaría de Prevención del Delito</t>
+          <t>Delegación Presidencial Provincial de Marga Marga</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>AB091</t>
+          <t>AB090</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469">
@@ -16294,17 +16294,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Ñuble (GORE)</t>
+          <t>Subsecretaría de Prevención del Delito</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>AB098</t>
+          <t>AB091</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -16314,10 +16314,10 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470">
@@ -16328,17 +16328,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
+          <t>Gobierno Regional de Ñuble (GORE)</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>AD015</t>
+          <t>AB098</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -16348,10 +16348,10 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H470" t="n">
-        <v>363</v>
+        <v>59</v>
       </c>
     </row>
     <row r="471">
@@ -16362,21 +16362,21 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
+          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>AD016</t>
+          <t>AD015</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F471" t="n">
         <v>0</v>
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>110</v>
+        <v>363</v>
       </c>
     </row>
     <row r="472">
@@ -16396,21 +16396,21 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Subsecretaría de Hacienda</t>
+          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AE001</t>
+          <t>AD016</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="473">
@@ -16430,17 +16430,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Dirección Nacional del Servicio Civil</t>
+          <t>Subsecretaría de Hacienda</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>AE004</t>
+          <t>AE001</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="474">
@@ -16464,17 +16464,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Unidad de Análisis Financiero</t>
+          <t>Dirección Nacional del Servicio Civil</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>AE005</t>
+          <t>AE004</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475">
@@ -16498,17 +16498,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
+          <t>Unidad de Análisis Financiero</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>AE009</t>
+          <t>AE005</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -16518,10 +16518,10 @@
         <v>0</v>
       </c>
       <c r="G475" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="476">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Superintendencia de Casinos de Juego (SCJ)</t>
+          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>AE012</t>
+          <t>AE009</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -16552,10 +16552,10 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H476" t="n">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="477">
@@ -16566,17 +16566,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
+          <t>Superintendencia de Casinos de Juego (SCJ)</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>AE013</t>
+          <t>AE012</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="478">
@@ -16605,12 +16605,12 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Defensoría del Contribuyente</t>
+          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>AE033</t>
+          <t>AE013</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="479">
@@ -16634,17 +16634,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
+          <t>Defensoría del Contribuyente</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>AG001</t>
+          <t>AE033</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480">
@@ -16668,17 +16668,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Estadisticas (INE)</t>
+          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>AH007</t>
+          <t>AG001</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481">
@@ -16702,17 +16702,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
+          <t>Instituto Nacional de Estadisticas (INE)</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>AH010</t>
+          <t>AH007</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="482">
@@ -16736,17 +16736,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
+          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>AH012</t>
+          <t>AH010</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="483">
@@ -16770,17 +16770,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
+          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>AH013</t>
+          <t>AH012</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="484">
@@ -16804,17 +16804,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Subsecretaria de Evaluación Social</t>
+          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>AH013</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="485">
@@ -16838,17 +16838,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
+          <t>Subsecretaria de Evaluación Social</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="486">
@@ -16872,17 +16872,17 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Subsecretaría de Servicios Sociales</t>
+          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>AI008</t>
+          <t>AI002</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>297</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16906,21 +16906,21 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Subsecretaría de Servicios Sociales</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>AI008</t>
         </is>
       </c>
       <c r="E487" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F487" t="n">
         <v>0</v>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>509</v>
+        <v>297</v>
       </c>
     </row>
     <row r="488">
@@ -16940,21 +16940,21 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Consejo de Rectores</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>AJ002</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F488" t="n">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>509</v>
       </c>
     </row>
     <row r="489">
@@ -16974,17 +16974,17 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Educación (CNED)</t>
+          <t>Consejo de Rectores</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>AJ003</t>
+          <t>AJ002</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -17008,17 +17008,17 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Barrancas</t>
+          <t>Consejo Nacional de Educación (CNED)</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>AJ016</t>
+          <t>AJ003</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>229</v>
+        <v>11</v>
       </c>
     </row>
     <row r="491">
@@ -17042,17 +17042,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Huasco</t>
+          <t>Servicio Local de Educación Pública de Barrancas</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>AJ019</t>
+          <t>AJ016</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>727</v>
+        <v>229</v>
       </c>
     </row>
     <row r="492">
@@ -17076,17 +17076,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Costa Araucanía</t>
+          <t>Servicio Local de Educación Pública Huasco</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>AJ020</t>
+          <t>AJ019</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>13</v>
+        <v>727</v>
       </c>
     </row>
     <row r="493">
@@ -17110,17 +17110,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2020/05/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Superintendencia de Educación Superior</t>
+          <t>Servicio Local de Educación Pública Costa Araucanía</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>AJ021</t>
+          <t>AJ020</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -17130,10 +17130,10 @@
         <v>0</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="494">
@@ -17144,17 +17144,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2020/05/11</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Magallanes</t>
+          <t>Superintendencia de Educación Superior</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>AJ030</t>
+          <t>AJ021</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -17164,10 +17164,10 @@
         <v>0</v>
       </c>
       <c r="G494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H494" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -17178,17 +17178,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Iquique</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>AJ032</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="496">
@@ -17212,17 +17212,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+          <t>Servicio Local de Educación Pública de Iquique</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>AJ033</t>
+          <t>AJ032</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="497">
@@ -17246,17 +17246,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública  Maule Costa</t>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>AJ034</t>
+          <t>AJ033</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="498">
@@ -17280,17 +17280,17 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
+          <t>Servicio Local de Educación Pública  Maule Costa</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>AK010</t>
+          <t>AJ034</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="499">
@@ -17314,17 +17314,17 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Instituto de Previsión Social (IPS)</t>
+          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>AL005</t>
+          <t>AK010</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -17348,17 +17348,17 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Instituto de Seguridad Laboral (ISL)</t>
+          <t>Instituto de Previsión Social (IPS)</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>AL006</t>
+          <t>AL005</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="501">
@@ -17382,17 +17382,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
+          <t>Instituto de Seguridad Laboral (ISL)</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>AL007</t>
+          <t>AL006</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>67</v>
+        <v>331</v>
       </c>
     </row>
     <row r="502">
@@ -17416,17 +17416,17 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Superintendencia de Pensiones (SP)</t>
+          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>AL008</t>
+          <t>AL007</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="503">
@@ -17450,17 +17450,17 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
+          <t>Superintendencia de Pensiones (SP)</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>AO003</t>
+          <t>AL008</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>6797</v>
+        <v>71</v>
       </c>
     </row>
     <row r="504">
@@ -17484,17 +17484,17 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Servicio de Salud Bíobío</t>
+          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>AO029</t>
+          <t>AO003</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>5</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="505">
@@ -17518,17 +17518,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Tarapacá</t>
+          <t>Servicio de Salud Bíobío</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>AO040</t>
+          <t>AO029</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506">
@@ -17552,17 +17552,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>SEREMI de Salud  de Tarapacá</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>AO040</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507">
@@ -17586,17 +17586,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>14</v>
+        <v>212</v>
       </c>
     </row>
     <row r="508">
@@ -17620,17 +17620,17 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Hospital Regional Coyhaique</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>AO059</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -17640,10 +17640,10 @@
         <v>0</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>1244</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509">
@@ -17654,17 +17654,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
+          <t>Hospital Regional Coyhaique</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>AO082</t>
+          <t>AO059</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -17674,10 +17674,10 @@
         <v>0</v>
       </c>
       <c r="G509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H509" t="n">
-        <v>60</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="510">
@@ -17688,17 +17688,17 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Hospital Herminda Martin</t>
+          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>AO104</t>
+          <t>AO082</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="511">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Hospital Herminda Martin</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>AO104</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="512">
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>SERVIU Región de Antofagasta</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>AP003</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="513">
@@ -17790,17 +17790,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2018/02/14</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>SERVIU Metropolitano</t>
+          <t>SERVIU Región de Antofagasta</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>AP007</t>
+          <t>AP003</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
+          <t>SERVIU Metropolitano</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>AP008</t>
+          <t>AP007</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -17844,10 +17844,10 @@
         <v>0</v>
       </c>
       <c r="G514" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>181</v>
+        <v>53</v>
       </c>
     </row>
     <row r="515">
@@ -17858,17 +17858,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
+          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>AP014</t>
+          <t>AP008</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -17878,10 +17878,10 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="516">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2018/09/13</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>SERVIU Región de Arica y Parinacota</t>
+          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>AP016</t>
+          <t>AP014</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -17926,17 +17926,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Subsecretaría de Agricultura</t>
+          <t>SERVIU Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>AR001</t>
+          <t>AP016</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>275</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
@@ -17960,17 +17960,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Riego (CNR)</t>
+          <t>SERVIU Región del Ñuble</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>AR002</t>
+          <t>AP018</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519">
@@ -17994,30 +17994,30 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
+          <t>Subsecretaría de Agricultura</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>AR005</t>
+          <t>AR001</t>
         </is>
       </c>
       <c r="E519" t="n">
         <v>0</v>
       </c>
       <c r="F519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519" t="n">
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>115</v>
+        <v>275</v>
       </c>
     </row>
     <row r="520">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
+          <t>Comisión Nacional de Riego (CNR)</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>AT001</t>
+          <t>AR002</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>14</v>
+        <v>206</v>
       </c>
     </row>
     <row r="521">
@@ -18062,30 +18062,30 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Consejo de Defensa del Estado (CDE)</t>
+          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>AX001</t>
+          <t>AR005</t>
         </is>
       </c>
       <c r="E521" t="n">
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
+          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>AY001</t>
+          <t>AT001</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="523">
@@ -18130,17 +18130,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Subsecretaría del Deporte</t>
+          <t>Consejo de Defensa del Estado (CDE)</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>BA001</t>
+          <t>AX001</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -18164,17 +18164,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Subsecretaría del Patrimonio Cultural</t>
+          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>BC002</t>
+          <t>AY001</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
@@ -18198,17 +18198,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Subsecretaría del Deporte</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>BA001</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526">
@@ -18232,17 +18232,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>CFT Estatal de la Región del Maule</t>
+          <t>Subsecretaría del Patrimonio Cultural</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>CF002</t>
+          <t>BC002</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="527">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>CFT de la Región del Tarapacá</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>CF003</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="528">
@@ -18300,17 +18300,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>CFT de la Región de Los Ríos</t>
+          <t>CFT Estatal de la Región del Maule</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>CF004</t>
+          <t>CF002</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>CFT de la Región de los Lagos</t>
+          <t>CFT de la Región del Tarapacá</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>CF005</t>
+          <t>CF003</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="530">
@@ -18368,17 +18368,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>CFT de la Región de Los Ríos</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>CF006</t>
+          <t>CF004</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="531">
@@ -18402,17 +18402,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>CFT de la Región de Valparaíso</t>
+          <t>CFT de la Región de los Lagos</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>CF007</t>
+          <t>CF005</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="532">
@@ -18436,30 +18436,30 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>CFT de la Región de Antofagasta</t>
+          <t>CFT de la Región de Coquimbo</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>CF009</t>
+          <t>CF006</t>
         </is>
       </c>
       <c r="E532" t="n">
         <v>0</v>
       </c>
       <c r="F532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" t="n">
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="533">
@@ -18470,30 +18470,30 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
+          <t>CFT de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>CM002</t>
+          <t>CF007</t>
         </is>
       </c>
       <c r="E533" t="n">
         <v>0</v>
       </c>
       <c r="F533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" t="n">
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="534">
@@ -18504,30 +18504,30 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Corporación Municipal Isla de Maipo</t>
+          <t>CFT de la Región de Antofagasta</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>CM003</t>
+          <t>CF009</t>
         </is>
       </c>
       <c r="E534" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G534" t="n">
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="535">
@@ -18543,25 +18543,25 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Rancagua (CORMUN)</t>
+          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>CM008</t>
+          <t>CM002</t>
         </is>
       </c>
       <c r="E535" t="n">
         <v>0</v>
       </c>
       <c r="F535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G535" t="n">
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="536">
@@ -18572,21 +18572,21 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
+          <t>Corporación Municipal Isla de Maipo</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>CM009</t>
+          <t>CM003</t>
         </is>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F536" t="n">
         <v>0</v>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="537">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+          <t>Corporación Municipal de Rancagua (CORMUN)</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>CM010</t>
+          <t>CM008</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="538">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Castro</t>
+          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>CM011</t>
+          <t>CM009</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="539">
@@ -18674,30 +18674,30 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Valparaíso</t>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>CM015</t>
+          <t>CM010</t>
         </is>
       </c>
       <c r="E539" t="n">
         <v>0</v>
       </c>
       <c r="F539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G539" t="n">
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Corporación Municipal de La Reina</t>
+          <t>Corporación Municipal de Castro</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>CM017</t>
+          <t>CM011</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="541">
@@ -18742,30 +18742,30 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quilpué</t>
+          <t>Corporación Municipal de Valparaíso</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>CM019</t>
+          <t>CM015</t>
         </is>
       </c>
       <c r="E541" t="n">
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>374</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+          <t>Corporación Municipal de La Reina</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>CM020</t>
+          <t>CM017</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543">
@@ -18810,17 +18810,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
+          <t>Corporación Municipal de Quilpué</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>CM022</t>
+          <t>CM019</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>374</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Ancud</t>
+          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>CM024</t>
+          <t>CM020</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -18878,17 +18878,17 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Buin</t>
+          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>CM025</t>
+          <t>CM022</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación Municipal de Ancud</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM024</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -18951,12 +18951,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -18980,17 +18980,17 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19014,30 +19014,30 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G549" t="n">
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551">
@@ -19082,30 +19082,30 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G551" t="n">
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="552">
@@ -19116,17 +19116,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="553">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Deporte Rancagua</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19354,17 +19354,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560">
@@ -19393,12 +19393,12 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562">
@@ -19456,17 +19456,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -19524,17 +19524,17 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565">
@@ -19558,17 +19558,17 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566">
@@ -19592,17 +19592,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -19626,17 +19626,17 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="568">
@@ -19660,30 +19660,30 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E568" t="n">
         <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G568" t="n">
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
@@ -19728,24 +19728,24 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E570" t="n">
         <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G570" t="n">
         <v>0</v>
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="572">
@@ -19801,12 +19801,12 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -19830,30 +19830,30 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G573" t="n">
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="575">
@@ -19898,30 +19898,30 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E575" t="n">
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G575" t="n">
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="576">
@@ -19932,17 +19932,17 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -20000,17 +20000,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -20102,17 +20102,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -20170,17 +20170,17 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="584">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>266</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Municipalidad de Cartagena</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MU029</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="587">
@@ -20306,30 +20306,30 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E587" t="n">
         <v>0</v>
       </c>
       <c r="F587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G587" t="n">
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>588</v>
+        <v>266</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU029</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590">
@@ -20408,30 +20408,30 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E590" t="n">
         <v>0</v>
       </c>
       <c r="F590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G590" t="n">
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>18</v>
+        <v>595</v>
       </c>
     </row>
     <row r="591">
@@ -20442,17 +20442,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU079</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>1678</v>
+        <v>44</v>
       </c>
     </row>
     <row r="592">
@@ -20481,25 +20481,25 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E592" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>780</v>
+        <v>400</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>435</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>465</v>
+        <v>18</v>
       </c>
     </row>
     <row r="595">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>6</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="596">
@@ -20612,30 +20612,30 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E596" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F596" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H596" t="n">
-        <v>62</v>
+        <v>780</v>
       </c>
     </row>
     <row r="597">
@@ -20646,17 +20646,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598">
@@ -20680,17 +20680,17 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>6</v>
+        <v>465</v>
       </c>
     </row>
     <row r="599">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600">
@@ -20748,17 +20748,17 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="601">
@@ -20782,17 +20782,17 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20802,10 +20802,10 @@
         <v>0</v>
       </c>
       <c r="G601" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>1200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="603">
@@ -20855,12 +20855,12 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>19</v>
+        <v>127</v>
       </c>
     </row>
     <row r="604">
@@ -20884,17 +20884,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>195</v>
+        <v>43</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20938,10 +20938,10 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H605" t="n">
-        <v>6</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="606">
@@ -20957,12 +20957,12 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="607">
@@ -20986,21 +20986,21 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F607" t="n">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>485</v>
+        <v>19</v>
       </c>
     </row>
     <row r="608">
@@ -21020,21 +21020,21 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F608" t="n">
         <v>0</v>
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>800</v>
+        <v>195</v>
       </c>
     </row>
     <row r="609">
@@ -21054,17 +21054,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610">
@@ -21088,17 +21088,17 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="611">
@@ -21122,30 +21122,30 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F611" t="n">
         <v>0</v>
       </c>
       <c r="G611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>2684</v>
+        <v>485</v>
       </c>
     </row>
     <row r="612">
@@ -21156,21 +21156,21 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F612" t="n">
         <v>0</v>
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="613">
@@ -21190,17 +21190,17 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21278,10 +21278,10 @@
         <v>0</v>
       </c>
       <c r="G615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H615" t="n">
-        <v>53</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="618">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="620">
@@ -21428,29 +21428,165 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
+          <t>2024/04/09</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Municipalidad de Villa Alegre</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>MU337</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0</v>
+      </c>
+      <c r="G620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H620" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2023/09/20</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Municipalidad de Vitacura</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>MU341</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H621" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>0</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>0</v>
+      </c>
+      <c r="H622" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2024/04/12</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>0</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0</v>
+      </c>
+      <c r="G623" t="n">
+        <v>0</v>
+      </c>
+      <c r="H623" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C620" t="inlineStr">
+      <c r="C624" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D620" t="inlineStr">
+      <c r="D624" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E620" t="n">
-        <v>0</v>
-      </c>
-      <c r="F620" t="n">
-        <v>0</v>
-      </c>
-      <c r="G620" t="n">
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0</v>
+      </c>
+      <c r="G624" t="n">
         <v>3</v>
       </c>
-      <c r="H620" t="n">
+      <c r="H624" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H624"/>
+  <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>421114</v>
+        <v>421129</v>
       </c>
     </row>
     <row r="79">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="H147" t="n">
-        <v>14077</v>
+        <v>14216</v>
       </c>
     </row>
     <row r="148">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>507</v>
       </c>
       <c r="H148" t="n">
-        <v>401049</v>
+        <v>408193</v>
       </c>
     </row>
     <row r="149">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>362</v>
       </c>
       <c r="H199" t="n">
-        <v>17174</v>
+        <v>17363</v>
       </c>
     </row>
     <row r="200">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>134</v>
       </c>
       <c r="H235" t="n">
-        <v>45765</v>
+        <v>46359</v>
       </c>
     </row>
     <row r="236">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9174,10 +9174,10 @@
         <v>43</v>
       </c>
       <c r="G259" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H259" t="n">
-        <v>17224</v>
+        <v>17310</v>
       </c>
     </row>
     <row r="260">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>49</v>
       </c>
       <c r="H276" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="277">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>18796</v>
+        <v>19023</v>
       </c>
     </row>
     <row r="284">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>13652</v>
+        <v>13922</v>
       </c>
     </row>
     <row r="294">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>14518</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>54</v>
       </c>
       <c r="H299" t="n">
-        <v>55191</v>
+        <v>55321</v>
       </c>
     </row>
     <row r="300">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>120</v>
       </c>
       <c r="H303" t="n">
-        <v>5722</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="304">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>30</v>
       </c>
       <c r="H312" t="n">
-        <v>1578</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="313">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>12000</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="333">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2023/05/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>35</v>
       </c>
       <c r="H360" t="n">
-        <v>60839</v>
+        <v>61347</v>
       </c>
     </row>
     <row r="361">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="363">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>19103</v>
+        <v>19872</v>
       </c>
     </row>
     <row r="377">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>13622</v>
+        <v>13783</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>11</v>
       </c>
       <c r="H386" t="n">
-        <v>23339</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="387">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>216</v>
       </c>
       <c r="H389" t="n">
-        <v>192188</v>
+        <v>191990</v>
       </c>
     </row>
     <row r="390">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>2</v>
       </c>
       <c r="H406" t="n">
-        <v>6587</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>16282</v>
+        <v>16739</v>
       </c>
     </row>
     <row r="422">
@@ -15478,30 +15478,30 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Universidad de Atacama</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>UN004</t>
         </is>
       </c>
       <c r="E445" t="n">
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>217</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446">
@@ -15512,30 +15512,30 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Universidad de Los Lagos</t>
+          <t>Universidad de Valparaíso</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>UN015</t>
+          <t>UN007</t>
         </is>
       </c>
       <c r="E446" t="n">
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>759</v>
+        <v>217</v>
       </c>
     </row>
     <row r="447">
@@ -15546,17 +15546,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Universidad de Los Lagos</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>UN015</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>2236</v>
+        <v>759</v>
       </c>
     </row>
     <row r="448">
@@ -15580,17 +15580,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Universidad de OHiggins</t>
+          <t>Universidad de Aysén</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>UN018</t>
+          <t>UN017</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -15603,28 +15603,28 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>17486</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TA_Licitaciones</t>
+          <t>TA_Nomina_beneficiarios</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Subsecretaría del Interior</t>
+          <t>Universidad de OHiggins</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>AB001</t>
+          <t>UN018</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>19</v>
+        <v>17486</v>
       </c>
     </row>
     <row r="450">
@@ -15648,21 +15648,21 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Prevención y Respuesta ante Desastres (SENAPRED) ex ONEMI</t>
+          <t>Subsecretaría del Interior</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>AB004</t>
+          <t>AB001</t>
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450" t="n">
         <v>0</v>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="451">
@@ -15682,21 +15682,21 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Coquimbo</t>
+          <t>Servicio Nacional de Prevención y Respuesta ante Desastres (SENAPRED) ex ONEMI</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>AB011</t>
+          <t>AB004</t>
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451" t="n">
         <v>0</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>23</v>
+        <v>299</v>
       </c>
     </row>
     <row r="452">
@@ -15716,17 +15716,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chañaral</t>
+          <t>Delegación Presidencial Regional de Coquimbo</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>AB029</t>
+          <t>AB011</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="453">
@@ -15750,17 +15750,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Huasco</t>
+          <t>Delegación Presidencial Provincial de Chañaral</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>AB031</t>
+          <t>AB029</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -15784,17 +15784,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Colchagua</t>
+          <t>Delegación Presidencial Provincial de Huasco</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>AB043</t>
+          <t>AB031</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial del Bíobío</t>
+          <t>Delegación Presidencial Provincial de Colchagua</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AB050</t>
+          <t>AB043</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -15852,17 +15852,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Ranco</t>
+          <t>Delegación Presidencial Provincial del Bíobío</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>AB056</t>
+          <t>AB050</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -15886,17 +15886,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Aysén</t>
+          <t>Delegación Presidencial Provincial de Ranco</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>AB062</t>
+          <t>AB056</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -15920,17 +15920,17 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Capitán Prat</t>
+          <t>Delegación Presidencial Provincial de Aysén</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>AB064</t>
+          <t>AB062</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -15959,12 +15959,12 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de última Esperanza</t>
+          <t>Delegación Presidencial Provincial de Capitán Prat</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>AB065</t>
+          <t>AB064</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -15988,17 +15988,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Tarapacá (GORE)</t>
+          <t>Delegación Presidencial Provincial de última Esperanza</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>AB076</t>
+          <t>AB065</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461">
@@ -16022,17 +16022,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Atacama (GORE)</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>AB078</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -16061,12 +16061,12 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Valparaíso  (GORE)</t>
+          <t>Gobierno Regional de Atacama (GORE)</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>AB080</t>
+          <t>AB078</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="463">
@@ -16090,17 +16090,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
+          <t>Gobierno Regional de Valparaíso  (GORE)</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>AB081</t>
+          <t>AB080</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -16110,10 +16110,10 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
         <v>2</v>
-      </c>
-      <c r="H463" t="n">
-        <v>185</v>
       </c>
     </row>
     <row r="464">
@@ -16124,17 +16124,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
+          <t>Gobierno Regional Metropolitano de Santiago  (GORE Metropolitano)</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>AB082</t>
+          <t>AB081</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -16144,10 +16144,10 @@
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H464" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="465">
@@ -16158,17 +16158,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2023/10/05</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Gobierno Regional de OHiggins (Gore OHiggins)</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>AB082</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="466">
@@ -16192,17 +16192,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467">
@@ -16226,17 +16226,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468">
@@ -16260,17 +16260,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Marga Marga</t>
+          <t>Gobierno Regional de Los Ríos (GORE de Los Ríos)</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>AB090</t>
+          <t>AB086</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469">
@@ -16294,17 +16294,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Subsecretaría de Prevención del Delito</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>AB091</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -16333,12 +16333,12 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Ñuble (GORE)</t>
+          <t>Delegación Presidencial Provincial de Marga Marga</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>AB098</t>
+          <t>AB090</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -16348,10 +16348,10 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -16367,12 +16367,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
+          <t>Subsecretaría de Prevención del Delito</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>AD015</t>
+          <t>AB091</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>363</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472">
@@ -16396,30 +16396,30 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
+          <t>Gobierno Regional de Ñuble (GORE)</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AD016</t>
+          <t>AB098</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H472" t="n">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473">
@@ -16435,12 +16435,12 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Subsecretaría de Hacienda</t>
+          <t>Caja de Previsión de la Defensa Nacional (CAPREDENA)</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>AE001</t>
+          <t>AD015</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>116</v>
+        <v>363</v>
       </c>
     </row>
     <row r="474">
@@ -16464,21 +16464,21 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Dirección Nacional del Servicio Civil</t>
+          <t>Dirección de Previsión de Carabineros de Chile (DIPRECA)</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>AE004</t>
+          <t>AD016</t>
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F474" t="n">
         <v>0</v>
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="475">
@@ -16503,12 +16503,12 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Unidad de Análisis Financiero</t>
+          <t>Subsecretaría de Hacienda</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>AE005</t>
+          <t>AE001</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="476">
@@ -16532,17 +16532,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
+          <t>Dirección Nacional del Servicio Civil</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>AE009</t>
+          <t>AE004</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -16552,10 +16552,10 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="477">
@@ -16566,17 +16566,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Superintendencia de Casinos de Juego (SCJ)</t>
+          <t>Unidad de Análisis Financiero</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>AE012</t>
+          <t>AE005</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="478">
@@ -16600,17 +16600,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
+          <t>Comisión para el Mercado Financiero  CMF ex SVS</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>AE013</t>
+          <t>AE009</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -16620,10 +16620,10 @@
         <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H478" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="479">
@@ -16634,17 +16634,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Defensoría del Contribuyente</t>
+          <t>Superintendencia de Casinos de Juego (SCJ)</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>AE033</t>
+          <t>AE012</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="480">
@@ -16668,17 +16668,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
+          <t>Administradora de los Tribunales Tributarios y Aduaneros (ATTA)</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>AG001</t>
+          <t>AE013</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="481">
@@ -16702,17 +16702,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Estadisticas (INE)</t>
+          <t>Defensoría del Contribuyente</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>AH007</t>
+          <t>AE033</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482">
@@ -16736,17 +16736,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
+          <t>Subsecretaría General de Gobierno (SEGEGOB)</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>AH010</t>
+          <t>AG001</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -16770,17 +16770,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
+          <t>Instituto Nacional de Estadisticas (INE)</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>AH012</t>
+          <t>AH007</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="484">
@@ -16804,17 +16804,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
+          <t>Servicio Nacional de Pesca y Acuicultura (SERNAPESCA)</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>AH013</t>
+          <t>AH010</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="485">
@@ -16838,17 +16838,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Subsecretaria de Evaluación Social</t>
+          <t>Servicio de Cooperación Técnica (SERCOTEC)</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>AH012</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="486">
@@ -16877,12 +16877,12 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
+          <t>Superintendencia de Insolvencia y Reemprendimiento (SUPERIR)</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>AH013</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="487">
@@ -16906,17 +16906,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Subsecretaría de Servicios Sociales</t>
+          <t>Subsecretaria de Evaluación Social</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>AI008</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>297</v>
+        <v>55</v>
       </c>
     </row>
     <row r="488">
@@ -16940,21 +16940,21 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>AI002</t>
         </is>
       </c>
       <c r="E488" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F488" t="n">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -16974,17 +16974,17 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Consejo de Rectores</t>
+          <t>Subsecretaría de Servicios Sociales</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>AJ002</t>
+          <t>AI008</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>297</v>
       </c>
     </row>
     <row r="490">
@@ -17008,21 +17008,21 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Educación (CNED)</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>AJ003</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F490" t="n">
         <v>0</v>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>11</v>
+        <v>509</v>
       </c>
     </row>
     <row r="491">
@@ -17042,17 +17042,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Barrancas</t>
+          <t>Consejo de Rectores</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>AJ016</t>
+          <t>AJ002</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>229</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -17081,12 +17081,12 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Huasco</t>
+          <t>Consejo Nacional de Educación (CNED)</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>AJ019</t>
+          <t>AJ003</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>727</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493">
@@ -17110,17 +17110,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Costa Araucanía</t>
+          <t>Servicio Local de Educación Pública de Barrancas</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>AJ020</t>
+          <t>AJ016</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>23</v>
+        <v>229</v>
       </c>
     </row>
     <row r="494">
@@ -17144,17 +17144,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2020/05/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Superintendencia de Educación Superior</t>
+          <t>Servicio Local de Educación Pública Huasco</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>AJ021</t>
+          <t>AJ019</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -17164,10 +17164,10 @@
         <v>0</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>727</v>
       </c>
     </row>
     <row r="495">
@@ -17178,17 +17178,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Magallanes</t>
+          <t>Servicio Local de Educación Pública Costa Araucanía</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>AJ030</t>
+          <t>AJ020</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="496">
@@ -17212,17 +17212,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2020/05/11</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Iquique</t>
+          <t>Superintendencia de Educación Superior</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>AJ032</t>
+          <t>AJ021</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -17232,10 +17232,10 @@
         <v>0</v>
       </c>
       <c r="G496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H496" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -17251,12 +17251,12 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+          <t>Servicio Local de Educación Pública de Magallanes</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>AJ033</t>
+          <t>AJ030</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="498">
@@ -17280,17 +17280,17 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública  Maule Costa</t>
+          <t>Servicio Local de Educación Pública de Iquique</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>AJ034</t>
+          <t>AJ032</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="499">
@@ -17314,17 +17314,17 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>AK010</t>
+          <t>AJ033</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500">
@@ -17353,12 +17353,12 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Instituto de Previsión Social (IPS)</t>
+          <t>Servicio Local de Educación Pública  Maule Costa</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>AL005</t>
+          <t>AJ034</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>308</v>
+        <v>30</v>
       </c>
     </row>
     <row r="501">
@@ -17382,17 +17382,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Instituto de Seguridad Laboral (ISL)</t>
+          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>AL006</t>
+          <t>AK010</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -17416,17 +17416,17 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
+          <t>Instituto de Previsión Social (IPS)</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>AL007</t>
+          <t>AL005</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>73</v>
+        <v>308</v>
       </c>
     </row>
     <row r="503">
@@ -17450,17 +17450,17 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Superintendencia de Pensiones (SP)</t>
+          <t>Instituto de Seguridad Laboral (ISL)</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>AL008</t>
+          <t>AL006</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>71</v>
+        <v>331</v>
       </c>
     </row>
     <row r="504">
@@ -17484,17 +17484,17 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
+          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>AO003</t>
+          <t>AL007</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>6797</v>
+        <v>79</v>
       </c>
     </row>
     <row r="505">
@@ -17518,17 +17518,17 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Servicio de Salud Bíobío</t>
+          <t>Superintendencia de Pensiones (SP)</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>AO029</t>
+          <t>AL008</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="506">
@@ -17552,17 +17552,17 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Tarapacá</t>
+          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>AO040</t>
+          <t>AO003</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>10</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="507">
@@ -17586,17 +17586,17 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Servicio de Salud Bíobío</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>AO029</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="508">
@@ -17620,17 +17620,17 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>SEREMI de Salud  de Tarapacá</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>AO040</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -17654,17 +17654,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Hospital Regional Coyhaique</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>AO059</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -17674,10 +17674,10 @@
         <v>0</v>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>1244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="510">
@@ -17688,17 +17688,17 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>AO082</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="511">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Hospital Herminda Martin</t>
+          <t>Hospital Regional Coyhaique</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>AO104</t>
+          <t>AO059</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -17742,10 +17742,10 @@
         <v>0</v>
       </c>
       <c r="G511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H511" t="n">
-        <v>37</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="512">
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>AO082</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="513">
@@ -17790,17 +17790,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>SERVIU Región de Antofagasta</t>
+          <t>Hospital Herminda Martin</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>AP003</t>
+          <t>AO104</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="514">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>SERVIU Metropolitano</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>AP007</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="515">
@@ -17858,17 +17858,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2018/02/14</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
+          <t>SERVIU Región de Antofagasta</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>AP008</t>
+          <t>AP003</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -17878,10 +17878,10 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
+          <t>SERVIU Metropolitano</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>AP014</t>
+          <t>AP007</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="517">
@@ -17926,17 +17926,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SERVIU Región de Arica y Parinacota</t>
+          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>AP016</t>
+          <t>AP008</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -17946,10 +17946,10 @@
         <v>0</v>
       </c>
       <c r="G517" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H517" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
     </row>
     <row r="518">
@@ -17960,17 +17960,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2018/09/13</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>SERVIU Región del Ñuble</t>
+          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>AP018</t>
+          <t>AP014</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -17994,17 +17994,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Subsecretaría de Agricultura</t>
+          <t>SERVIU Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>AR001</t>
+          <t>AP016</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>275</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Riego (CNR)</t>
+          <t>SERVIU Región del Ñuble</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>AR002</t>
+          <t>AP018</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521">
@@ -18062,30 +18062,30 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
+          <t>Subsecretaría de Agricultura</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>AR005</t>
+          <t>AR001</t>
         </is>
       </c>
       <c r="E521" t="n">
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>115</v>
+        <v>275</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
+          <t>Comisión Nacional de Riego (CNR)</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>AT001</t>
+          <t>AR002</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>14</v>
+        <v>206</v>
       </c>
     </row>
     <row r="523">
@@ -18130,30 +18130,30 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Consejo de Defensa del Estado (CDE)</t>
+          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>AX001</t>
+          <t>AR005</t>
         </is>
       </c>
       <c r="E523" t="n">
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G523" t="n">
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="524">
@@ -18164,17 +18164,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
+          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>AY001</t>
+          <t>AT001</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="525">
@@ -18198,17 +18198,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Subsecretaría del Deporte</t>
+          <t>Consejo de Defensa del Estado (CDE)</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>BA001</t>
+          <t>AX001</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -18232,17 +18232,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Subsecretaría del Patrimonio Cultural</t>
+          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>BC002</t>
+          <t>AY001</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Subsecretaría del Deporte</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>BA001</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528">
@@ -18300,17 +18300,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>CFT Estatal de la Región del Maule</t>
+          <t>Subsecretaría del Patrimonio Cultural</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>CF002</t>
+          <t>BC002</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>CFT de la Región del Tarapacá</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>CF003</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="530">
@@ -18368,17 +18368,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>CFT de la Región de Los Ríos</t>
+          <t>CFT Estatal de la Región del Maule</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>CF004</t>
+          <t>CF002</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="531">
@@ -18402,17 +18402,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>CFT de la Región de los Lagos</t>
+          <t>CFT de la Región del Tarapacá</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>CF005</t>
+          <t>CF003</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="532">
@@ -18436,17 +18436,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>CFT de la Región de Los Ríos</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>CF006</t>
+          <t>CF004</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="533">
@@ -18470,17 +18470,17 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>CFT de la Región de Valparaíso</t>
+          <t>CFT de la Región de los Lagos</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>CF007</t>
+          <t>CF005</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="534">
@@ -18504,30 +18504,30 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>CFT de la Región de Antofagasta</t>
+          <t>CFT de la Región de Coquimbo</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>CF009</t>
+          <t>CF006</t>
         </is>
       </c>
       <c r="E534" t="n">
         <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" t="n">
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535">
@@ -18538,30 +18538,30 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
+          <t>CFT de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>CM002</t>
+          <t>CF007</t>
         </is>
       </c>
       <c r="E535" t="n">
         <v>0</v>
       </c>
       <c r="F535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" t="n">
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536">
@@ -18572,30 +18572,30 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Corporación Municipal Isla de Maipo</t>
+          <t>CFT de la Región de Antofagasta</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>CM003</t>
+          <t>CF009</t>
         </is>
       </c>
       <c r="E536" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G536" t="n">
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="537">
@@ -18611,25 +18611,25 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Rancagua (CORMUN)</t>
+          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>CM008</t>
+          <t>CM002</t>
         </is>
       </c>
       <c r="E537" t="n">
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G537" t="n">
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="538">
@@ -18640,21 +18640,21 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
+          <t>Corporación Municipal Isla de Maipo</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>CM009</t>
+          <t>CM003</t>
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F538" t="n">
         <v>0</v>
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="539">
@@ -18674,17 +18674,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+          <t>Corporación Municipal de Rancagua (CORMUN)</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>CM010</t>
+          <t>CM008</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Castro</t>
+          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>CM011</t>
+          <t>CM009</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="541">
@@ -18742,30 +18742,30 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Valparaíso</t>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>CM015</t>
+          <t>CM010</t>
         </is>
       </c>
       <c r="E541" t="n">
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Corporación Municipal de La Reina</t>
+          <t>Corporación Municipal de Castro</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>CM017</t>
+          <t>CM011</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543">
@@ -18810,30 +18810,30 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quilpué</t>
+          <t>Corporación Municipal de Valparaíso</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>CM019</t>
+          <t>CM015</t>
         </is>
       </c>
       <c r="E543" t="n">
         <v>0</v>
       </c>
       <c r="F543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G543" t="n">
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>374</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+          <t>Corporación Municipal de La Reina</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>CM020</t>
+          <t>CM017</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545">
@@ -18878,17 +18878,17 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
+          <t>Corporación Municipal de Quilpué</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>CM022</t>
+          <t>CM019</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>374</v>
       </c>
     </row>
     <row r="546">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Ancud</t>
+          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>CM024</t>
+          <t>CM020</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18946,17 +18946,17 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Buin</t>
+          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>CM025</t>
+          <t>CM022</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18980,17 +18980,17 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación Municipal de Ancud</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM024</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
@@ -19019,12 +19019,12 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19082,30 +19082,30 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G551" t="n">
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552">
@@ -19116,17 +19116,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553">
@@ -19150,30 +19150,30 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G553" t="n">
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="554">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Deporte Rancagua</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -19354,17 +19354,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -19388,17 +19388,17 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -19461,12 +19461,12 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564">
@@ -19524,17 +19524,17 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -19558,17 +19558,17 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19592,17 +19592,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567">
@@ -19626,17 +19626,17 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación Municipal de Cultura San Clemente</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM191</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -19728,30 +19728,30 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E570" t="n">
         <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G570" t="n">
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="571">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573">
@@ -19830,30 +19830,30 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G573" t="n">
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="575">
@@ -19898,30 +19898,30 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E575" t="n">
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G575" t="n">
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="576">
@@ -19932,17 +19932,17 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="578">
@@ -20000,30 +20000,30 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E578" t="n">
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="579">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>FU022</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20102,17 +20102,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -20170,17 +20170,17 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="587">
@@ -20306,17 +20306,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>266</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Municipalidad de Cartagena</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>MU029</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="590">
@@ -20408,30 +20408,30 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E590" t="n">
         <v>0</v>
       </c>
       <c r="F590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G590" t="n">
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>595</v>
+        <v>266</v>
       </c>
     </row>
     <row r="591">
@@ -20442,17 +20442,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Municipalidad de Dalcahue</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MU079</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="592">
@@ -20476,17 +20476,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU029</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593">
@@ -20510,30 +20510,30 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E593" t="n">
         <v>0</v>
       </c>
       <c r="F593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G593" t="n">
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>435</v>
+        <v>595</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU079</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="595">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>1678</v>
+        <v>400</v>
       </c>
     </row>
     <row r="596">
@@ -20612,30 +20612,30 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E596" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>780</v>
+        <v>435</v>
       </c>
     </row>
     <row r="597">
@@ -20646,17 +20646,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="598">
@@ -20680,17 +20680,17 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>465</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="599">
@@ -20714,30 +20714,30 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F599" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H599" t="n">
-        <v>6</v>
+        <v>780</v>
       </c>
     </row>
     <row r="600">
@@ -20748,17 +20748,17 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -20782,17 +20782,17 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>22</v>
+        <v>465</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="604">
@@ -20884,17 +20884,17 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20938,10 +20938,10 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>1200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606">
@@ -20952,17 +20952,17 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="607">
@@ -20986,17 +20986,17 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="608">
@@ -21020,17 +21020,17 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -21040,10 +21040,10 @@
         <v>0</v>
       </c>
       <c r="G608" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H608" t="n">
-        <v>195</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="609">
@@ -21054,17 +21054,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="610">
@@ -21088,17 +21088,17 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="611">
@@ -21122,21 +21122,21 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F611" t="n">
         <v>0</v>
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>485</v>
+        <v>195</v>
       </c>
     </row>
     <row r="612">
@@ -21156,21 +21156,21 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F612" t="n">
         <v>0</v>
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>800</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613">
@@ -21195,12 +21195,12 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="614">
@@ -21224,21 +21224,21 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F614" t="n">
         <v>0</v>
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>24</v>
+        <v>485</v>
       </c>
     </row>
     <row r="615">
@@ -21258,30 +21258,30 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E615" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F615" t="n">
         <v>0</v>
       </c>
       <c r="G615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>2632</v>
+        <v>804</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="618">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21380,10 +21380,10 @@
         <v>0</v>
       </c>
       <c r="G618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620">
@@ -21428,17 +21428,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="621">
@@ -21462,17 +21462,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="623">
@@ -21530,17 +21530,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="624">
@@ -21564,29 +21564,131 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
+          <t>2023/09/20</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Municipalidad de Vitacura</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>MU341</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0</v>
+      </c>
+      <c r="G624" t="n">
+        <v>0</v>
+      </c>
+      <c r="H624" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2024/04/12</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
+      <c r="C627" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D624" t="inlineStr">
+      <c r="D627" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E624" t="n">
-        <v>0</v>
-      </c>
-      <c r="F624" t="n">
-        <v>0</v>
-      </c>
-      <c r="G624" t="n">
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
         <v>3</v>
       </c>
-      <c r="H624" t="n">
+      <c r="H627" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>703</v>
       </c>
       <c r="H2" t="n">
-        <v>12551</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>1998</v>
       </c>
       <c r="H94" t="n">
-        <v>47104</v>
+        <v>47121</v>
       </c>
     </row>
     <row r="95">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>4855</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="102">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>507</v>
       </c>
       <c r="H148" t="n">
-        <v>408193</v>
+        <v>411997</v>
       </c>
     </row>
     <row r="149">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>6783</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="173">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>25</v>
       </c>
       <c r="H210" t="n">
-        <v>45666</v>
+        <v>46068</v>
       </c>
     </row>
     <row r="211">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="n">
-        <v>6192</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="219">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>9432</v>
+        <v>9549</v>
       </c>
     </row>
     <row r="234">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="n">
-        <v>87304</v>
+        <v>88218</v>
       </c>
     </row>
     <row r="238">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>4056</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="252">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>15407</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="266">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>74</v>
       </c>
       <c r="H292" t="n">
-        <v>35171</v>
+        <v>35226</v>
       </c>
     </row>
     <row r="293">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>127</v>
       </c>
       <c r="H331" t="n">
-        <v>33415</v>
+        <v>33509</v>
       </c>
     </row>
     <row r="332">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>15301</v>
+        <v>15931</v>
       </c>
     </row>
     <row r="335">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="H340" t="n">
-        <v>10813</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="341">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>18538</v>
+        <v>18781</v>
       </c>
     </row>
     <row r="345">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>11517</v>
+        <v>11594</v>
       </c>
     </row>
     <row r="357">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>15794</v>
+        <v>15908</v>
       </c>
     </row>
     <row r="369">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>19605</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="380">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>11</v>
       </c>
       <c r="H386" t="n">
-        <v>23550</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="387">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>73600</v>
+        <v>73716</v>
       </c>
     </row>
     <row r="398">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>7547</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="409">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14852,10 +14852,10 @@
         <v>1</v>
       </c>
       <c r="G426" t="n">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H426" t="n">
-        <v>247052</v>
+        <v>247263</v>
       </c>
     </row>
     <row r="427">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="529">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="546">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>1678</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="599">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>195</v>
+        <v>287</v>
       </c>
     </row>
     <row r="623">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H639"/>
+  <dimension ref="A1:H643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>34</v>
       </c>
       <c r="H80" t="n">
-        <v>617916</v>
+        <v>618515</v>
       </c>
     </row>
     <row r="81">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>1998</v>
       </c>
       <c r="H95" t="n">
-        <v>49007</v>
+        <v>49009</v>
       </c>
     </row>
     <row r="96">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="H146" t="n">
-        <v>23725</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="147">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>20222</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="151">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>287</v>
       </c>
       <c r="H163" t="n">
-        <v>306228</v>
+        <v>306232</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>118</v>
       </c>
       <c r="H169" t="n">
-        <v>18178</v>
+        <v>18910</v>
       </c>
     </row>
     <row r="170">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>12</v>
       </c>
       <c r="H179" t="n">
-        <v>25884</v>
+        <v>27641</v>
       </c>
     </row>
     <row r="180">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>22267</v>
+        <v>22303</v>
       </c>
     </row>
     <row r="184">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>42531</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="187">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>362</v>
       </c>
       <c r="H200" t="n">
-        <v>17363</v>
+        <v>17570</v>
       </c>
     </row>
     <row r="201">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>32</v>
       </c>
       <c r="H230" t="n">
-        <v>24451</v>
+        <v>25121</v>
       </c>
     </row>
     <row r="231">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>134</v>
       </c>
       <c r="H236" t="n">
-        <v>46359</v>
+        <v>46989</v>
       </c>
     </row>
     <row r="237">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>4</v>
       </c>
       <c r="H239" t="n">
-        <v>18705</v>
+        <v>19324</v>
       </c>
     </row>
     <row r="240">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/05/04</t>
+          <t>2024/05/18</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>675</v>
       </c>
       <c r="H248" t="n">
-        <v>56250</v>
+        <v>59414</v>
       </c>
     </row>
     <row r="249">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>319</v>
       </c>
       <c r="H261" t="n">
-        <v>17310</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="262">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>43</v>
       </c>
       <c r="H270" t="n">
-        <v>19960</v>
+        <v>20108</v>
       </c>
     </row>
     <row r="271">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/26</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>23470</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>2378</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="278">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>3389</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>18708</v>
+        <v>19024</v>
       </c>
     </row>
     <row r="282">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>84</v>
       </c>
       <c r="H282" t="n">
-        <v>149018</v>
+        <v>150841</v>
       </c>
     </row>
     <row r="283">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>179</v>
       </c>
       <c r="H291" t="n">
-        <v>38182</v>
+        <v>38403</v>
       </c>
     </row>
     <row r="292">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>74</v>
       </c>
       <c r="H294" t="n">
-        <v>35461</v>
+        <v>35654</v>
       </c>
     </row>
     <row r="295">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>104</v>
       </c>
       <c r="H298" t="n">
-        <v>50445</v>
+        <v>50595</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>89858</v>
+        <v>90076</v>
       </c>
     </row>
     <row r="300">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>54</v>
       </c>
       <c r="H301" t="n">
-        <v>55321</v>
+        <v>55551</v>
       </c>
     </row>
     <row r="302">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>638</v>
       </c>
       <c r="H319" t="n">
-        <v>199852</v>
+        <v>199914</v>
       </c>
     </row>
     <row r="320">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>9</v>
       </c>
       <c r="H329" t="n">
-        <v>13446</v>
+        <v>13522</v>
       </c>
     </row>
     <row r="330">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>127</v>
       </c>
       <c r="H333" t="n">
-        <v>33549</v>
+        <v>33660</v>
       </c>
     </row>
     <row r="334">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>15931</v>
+        <v>16017</v>
       </c>
     </row>
     <row r="337">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>35</v>
       </c>
       <c r="H362" t="n">
-        <v>61347</v>
+        <v>61884</v>
       </c>
     </row>
     <row r="363">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>6729</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="369">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>15908</v>
+        <v>15923</v>
       </c>
     </row>
     <row r="371">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>6</v>
       </c>
       <c r="H373" t="n">
-        <v>12514</v>
+        <v>12613</v>
       </c>
     </row>
     <row r="374">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>19872</v>
+        <v>20569</v>
       </c>
     </row>
     <row r="379">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>13783</v>
+        <v>13931</v>
       </c>
     </row>
     <row r="381">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>2981</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="383">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>11</v>
       </c>
       <c r="H388" t="n">
-        <v>23565</v>
+        <v>23799</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>24444</v>
+        <v>24880</v>
       </c>
     </row>
     <row r="390">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>216</v>
       </c>
       <c r="H391" t="n">
-        <v>194333</v>
+        <v>194544</v>
       </c>
     </row>
     <row r="392">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>810</v>
+        <v>903</v>
       </c>
     </row>
     <row r="398">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="n">
-        <v>73724</v>
+        <v>73974</v>
       </c>
     </row>
     <row r="400">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>7914</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="411">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>17375</v>
+        <v>18228</v>
       </c>
     </row>
     <row r="424">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>17</v>
       </c>
       <c r="H435" t="n">
-        <v>219135</v>
+        <v>219852</v>
       </c>
     </row>
     <row r="436">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>5</v>
       </c>
       <c r="H478" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="479">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="502">
@@ -17654,17 +17654,17 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
+          <t>Servicio Localde Educación Pública Santa Corina</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>AK010</t>
+          <t>AJ036</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -17688,17 +17688,17 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Instituto de Previsión Social (IPS)</t>
+          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>AL005</t>
+          <t>AK010</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Instituto de Seguridad Laboral (ISL)</t>
+          <t>Instituto de Previsión Social (IPS)</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>AL006</t>
+          <t>AL005</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="512">
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
+          <t>Instituto de Seguridad Laboral (ISL)</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>AL007</t>
+          <t>AL006</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>88</v>
+        <v>356</v>
       </c>
     </row>
     <row r="513">
@@ -17790,17 +17790,17 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Superintendencia de Pensiones (SP)</t>
+          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>AL008</t>
+          <t>AL007</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="514">
@@ -17824,17 +17824,17 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
+          <t>Superintendencia de Pensiones (SP)</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>AO003</t>
+          <t>AL008</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>6931</v>
+        <v>71</v>
       </c>
     </row>
     <row r="515">
@@ -17858,17 +17858,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/19</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Servicio de Salud Atacama</t>
+          <t>Superintendencia de Seguridad Social (SUSESO)</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>AO019</t>
+          <t>AL009</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Servicio de Salud Bíobío</t>
+          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>AO029</t>
+          <t>AO003</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>9</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="517">
@@ -17931,12 +17931,12 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Tarapacá</t>
+          <t>Servicio de Salud Atacama</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>AO040</t>
+          <t>AO019</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -17960,17 +17960,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Servicio de Salud Bíobío</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>AO029</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="519">
@@ -17994,17 +17994,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>SEREMI de Salud  de Tarapacá</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>AO040</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Hospital Regional Coyhaique</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>AO059</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18048,10 +18048,10 @@
         <v>0</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>1294</v>
+        <v>212</v>
       </c>
     </row>
     <row r="521">
@@ -18062,17 +18062,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>AO082</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Hospital Herminda Martin</t>
+          <t>Hospital Regional Coyhaique</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>AO104</t>
+          <t>AO059</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18116,10 +18116,10 @@
         <v>0</v>
       </c>
       <c r="G522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H522" t="n">
-        <v>60</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="523">
@@ -18130,17 +18130,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>AO082</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="524">
@@ -18164,17 +18164,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>SERVIU Región de Antofagasta</t>
+          <t>Hospital Herminda Martin</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>AP003</t>
+          <t>AO104</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="525">
@@ -18198,17 +18198,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>SERVIU Metropolitano</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>AP007</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="526">
@@ -18232,17 +18232,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2018/02/14</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
+          <t>SERVIU Región de Antofagasta</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>AP008</t>
+          <t>AP003</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -18252,10 +18252,10 @@
         <v>0</v>
       </c>
       <c r="G526" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
+          <t>SERVIU Metropolitano</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>AP014</t>
+          <t>AP007</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="528">
@@ -18300,17 +18300,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>SERVIU Región de Arica y Parinacota</t>
+          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>AP016</t>
+          <t>AP008</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -18320,10 +18320,10 @@
         <v>0</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H528" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2018/09/13</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>SERVIU Región del Ñuble</t>
+          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>AP018</t>
+          <t>AP014</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -18368,17 +18368,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Subsecretaría de Agricultura</t>
+          <t>SERVIU Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>AR001</t>
+          <t>AP016</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>276</v>
+        <v>5</v>
       </c>
     </row>
     <row r="531">
@@ -18402,17 +18402,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Riego (CNR)</t>
+          <t>SERVIU Región del Ñuble</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>AR002</t>
+          <t>AP018</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="532">
@@ -18436,30 +18436,30 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
+          <t>Subsecretaría de Agricultura</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>AR005</t>
+          <t>AR001</t>
         </is>
       </c>
       <c r="E532" t="n">
         <v>0</v>
       </c>
       <c r="F532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" t="n">
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>119</v>
+        <v>276</v>
       </c>
     </row>
     <row r="533">
@@ -18470,17 +18470,17 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
+          <t>Comisión Nacional de Riego (CNR)</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>AT001</t>
+          <t>AR002</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>14</v>
+        <v>208</v>
       </c>
     </row>
     <row r="534">
@@ -18504,30 +18504,30 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Consejo de Defensa del Estado (CDE)</t>
+          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>AX001</t>
+          <t>AR005</t>
         </is>
       </c>
       <c r="E534" t="n">
         <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G534" t="n">
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="535">
@@ -18538,17 +18538,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
+          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>AY001</t>
+          <t>AT001</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536">
@@ -18572,17 +18572,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Subsecretaría del Deporte</t>
+          <t>Consejo de Defensa del Estado (CDE)</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>BA001</t>
+          <t>AX001</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Subsecretaría del Patrimonio Cultural</t>
+          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>BC002</t>
+          <t>AY001</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Subsecretaría del Deporte</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>BA001</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="539">
@@ -18674,17 +18674,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>CFT Estatal de la Región del Maule</t>
+          <t>Subsecretaría del Patrimonio Cultural</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>CF002</t>
+          <t>BC002</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>CFT de la Región del Tarapacá</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>CF003</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="541">
@@ -18742,17 +18742,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>CFT de la Región de Los Ríos</t>
+          <t>CFT Estatal de la Región del Maule</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>CF004</t>
+          <t>CF002</t>
         </is>
       </c>
       <c r="E541" t="n">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>CFT de la Región de los Lagos</t>
+          <t>CFT de la Región del Tarapacá</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>CF005</t>
+          <t>CF003</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543">
@@ -18810,17 +18810,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>CFT de la Región de Los Ríos</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>CF006</t>
+          <t>CF004</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="544">
@@ -18844,17 +18844,17 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>CFT de la Región de Valparaíso</t>
+          <t>CFT de la Región de los Lagos</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>CF007</t>
+          <t>CF005</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="545">
@@ -18878,30 +18878,30 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>CFT de la Región de Antofagasta</t>
+          <t>CFT de la Región de Coquimbo</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>CF009</t>
+          <t>CF006</t>
         </is>
       </c>
       <c r="E545" t="n">
         <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="546">
@@ -18912,30 +18912,30 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
+          <t>CFT de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>CM002</t>
+          <t>CF007</t>
         </is>
       </c>
       <c r="E546" t="n">
         <v>0</v>
       </c>
       <c r="F546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G546" t="n">
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="547">
@@ -18946,30 +18946,30 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Corporación Municipal Isla de Maipo</t>
+          <t>CFT de la Región de Antofagasta</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>CM003</t>
+          <t>CF009</t>
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547" t="n">
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="548">
@@ -18980,30 +18980,30 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Rancagua (CORMUN)</t>
+          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>CM008</t>
+          <t>CM002</t>
         </is>
       </c>
       <c r="E548" t="n">
         <v>0</v>
       </c>
       <c r="F548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G548" t="n">
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="549">
@@ -19014,21 +19014,21 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
+          <t>Corporación Municipal Isla de Maipo</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CM009</t>
+          <t>CM003</t>
         </is>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="550">
@@ -19048,17 +19048,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+          <t>Corporación Municipal de Rancagua (CORMUN)</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CM010</t>
+          <t>CM008</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="551">
@@ -19087,12 +19087,12 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Castro</t>
+          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CM011</t>
+          <t>CM009</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="552">
@@ -19116,30 +19116,30 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Valparaíso</t>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CM015</t>
+          <t>CM010</t>
         </is>
       </c>
       <c r="E552" t="n">
         <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G552" t="n">
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="553">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Corporación Municipal de La Reina</t>
+          <t>Corporación Municipal de Castro</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CM017</t>
+          <t>CM011</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="554">
@@ -19184,30 +19184,30 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quilpué</t>
+          <t>Corporación Municipal de Valparaíso</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CM019</t>
+          <t>CM015</t>
         </is>
       </c>
       <c r="E554" t="n">
         <v>0</v>
       </c>
       <c r="F554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G554" t="n">
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>416</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+          <t>Corporación Municipal de La Reina</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CM020</t>
+          <t>CM017</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
+          <t>Corporación Municipal de Quilpué</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CM022</t>
+          <t>CM019</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>416</v>
       </c>
     </row>
     <row r="557">
@@ -19286,17 +19286,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Ancud</t>
+          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CM024</t>
+          <t>CM020</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Buin</t>
+          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM025</t>
+          <t>CM022</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19354,17 +19354,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación Municipal de Ancud</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM024</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="560">
@@ -19388,17 +19388,17 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19456,30 +19456,30 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G562" t="n">
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="563">
@@ -19495,12 +19495,12 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564">
@@ -19524,30 +19524,30 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="565">
@@ -19563,12 +19563,12 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566">
@@ -19597,12 +19597,12 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19626,17 +19626,17 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="568">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/05/02</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Deporte Rancagua</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -19728,17 +19728,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573">
@@ -19830,17 +19830,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -19864,17 +19864,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Corporación de Deportes y Recreación de Peñalolén</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>CM133</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575">
@@ -19898,17 +19898,17 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -19932,17 +19932,17 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación de Deportes y Recreación de Peñalolén</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM133</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación del Deporte de La Municipalidad de Aysén</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM144</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -20000,17 +20000,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Cultura San Clemente</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>CM191</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581">
@@ -20102,17 +20102,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Corporación Municipal de innovación y desarrollo económico y social de SAN JOAQUÍN</t>
+          <t>Corporación Municipal de Cultura San Clemente</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>CM210</t>
+          <t>CM191</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -20170,17 +20170,17 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="584">
@@ -20204,30 +20204,30 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación Municipal de innovación y desarrollo económico y social de SAN JOAQUÍN</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM210</t>
         </is>
       </c>
       <c r="E584" t="n">
         <v>0</v>
       </c>
       <c r="F584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G584" t="n">
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -20306,30 +20306,30 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E587" t="n">
         <v>0</v>
       </c>
       <c r="F587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G587" t="n">
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="588">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="589">
@@ -20374,30 +20374,30 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E589" t="n">
         <v>0</v>
       </c>
       <c r="F589" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G589" t="n">
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="590">
@@ -20413,12 +20413,12 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="591">
@@ -20442,17 +20442,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="592">
@@ -20476,30 +20476,30 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E592" t="n">
         <v>0</v>
       </c>
       <c r="F592" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G592" t="n">
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>FU022</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20612,17 +20612,17 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -20646,17 +20646,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -20680,17 +20680,17 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -20748,17 +20748,17 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="601">
@@ -20782,17 +20782,17 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/05/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Municipalidad de Cartagena</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>MU029</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="604">
@@ -20884,30 +20884,30 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E604" t="n">
         <v>0</v>
       </c>
       <c r="F604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>616</v>
+        <v>271</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Municipalidad de Dalcahue</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>MU079</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="606">
@@ -20952,17 +20952,17 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/04</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU029</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>441</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607">
@@ -20986,30 +20986,30 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/05/05</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E607" t="n">
         <v>0</v>
       </c>
       <c r="F607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G607" t="n">
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>435</v>
+        <v>616</v>
       </c>
     </row>
     <row r="608">
@@ -21020,17 +21020,17 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU079</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="609">
@@ -21054,17 +21054,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>1714</v>
+        <v>441</v>
       </c>
     </row>
     <row r="610">
@@ -21088,30 +21088,30 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E610" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>780</v>
+        <v>435</v>
       </c>
     </row>
     <row r="611">
@@ -21122,17 +21122,17 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="612">
@@ -21156,17 +21156,17 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>465</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="613">
@@ -21190,30 +21190,30 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Municipalidad de Laja</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MU131</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F613" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613" t="n">
-        <v>44</v>
+        <v>799</v>
       </c>
     </row>
     <row r="614">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>72</v>
+        <v>465</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de Laja</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU131</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="620">
@@ -21428,17 +21428,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -21448,10 +21448,10 @@
         <v>0</v>
       </c>
       <c r="G620" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>1200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621">
@@ -21462,17 +21462,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="623">
@@ -21530,17 +21530,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -21550,10 +21550,10 @@
         <v>0</v>
       </c>
       <c r="G623" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H623" t="n">
-        <v>207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="624">
@@ -21564,17 +21564,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="625">
@@ -21598,17 +21598,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="626">
@@ -21632,21 +21632,21 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F626" t="n">
         <v>0</v>
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>485</v>
+        <v>207</v>
       </c>
     </row>
     <row r="627">
@@ -21666,21 +21666,21 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F627" t="n">
         <v>0</v>
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>804</v>
+        <v>8</v>
       </c>
     </row>
     <row r="628">
@@ -21700,17 +21700,17 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="629">
@@ -21734,21 +21734,21 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F629" t="n">
         <v>0</v>
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>24</v>
+        <v>485</v>
       </c>
     </row>
     <row r="630">
@@ -21768,30 +21768,30 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F630" t="n">
         <v>0</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>2658</v>
+        <v>804</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="632">
@@ -21836,17 +21836,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="633">
@@ -21870,17 +21870,17 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21890,10 +21890,10 @@
         <v>0</v>
       </c>
       <c r="G633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>343</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="637">
@@ -22006,17 +22006,17 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E637" t="n">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -22040,17 +22040,17 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E638" t="n">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>106</v>
+        <v>355</v>
       </c>
     </row>
     <row r="639">
@@ -22074,29 +22074,165 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Municipalidad de Villa Alegre</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>MU337</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>0</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0</v>
+      </c>
+      <c r="H639" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2023/09/20</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Municipalidad de Vitacura</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>MU341</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>0</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>0</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>0</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C639" t="inlineStr">
+      <c r="C643" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D639" t="inlineStr">
+      <c r="D643" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E639" t="n">
-        <v>0</v>
-      </c>
-      <c r="F639" t="n">
-        <v>0</v>
-      </c>
-      <c r="G639" t="n">
+      <c r="E643" t="n">
+        <v>0</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0</v>
+      </c>
+      <c r="G643" t="n">
         <v>3</v>
       </c>
-      <c r="H639" t="n">
+      <c r="H643" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H651"/>
+  <dimension ref="A1:H652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11077</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="79">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>34</v>
       </c>
       <c r="H82" t="n">
-        <v>621087</v>
+        <v>623656</v>
       </c>
     </row>
     <row r="83">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>237</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>10528</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="134">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>507</v>
       </c>
       <c r="H152" t="n">
-        <v>421933</v>
+        <v>422190</v>
       </c>
     </row>
     <row r="153">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>268</v>
       </c>
       <c r="H165" t="n">
-        <v>120988</v>
+        <v>121426</v>
       </c>
     </row>
     <row r="166">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>322</v>
       </c>
       <c r="H166" t="n">
-        <v>311675</v>
+        <v>311695</v>
       </c>
     </row>
     <row r="167">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>6467</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="172">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>6</v>
       </c>
       <c r="H173" t="n">
-        <v>14430</v>
+        <v>14742</v>
       </c>
     </row>
     <row r="174">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>94</v>
       </c>
       <c r="H175" t="n">
-        <v>66120</v>
+        <v>66847</v>
       </c>
     </row>
     <row r="176">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>17419</v>
+        <v>17601</v>
       </c>
     </row>
     <row r="179">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>43403</v>
+        <v>43429</v>
       </c>
     </row>
     <row r="190">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>57</v>
       </c>
       <c r="H196" t="n">
-        <v>62732</v>
+        <v>63249</v>
       </c>
     </row>
     <row r="197">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>35</v>
       </c>
       <c r="H201" t="n">
-        <v>8363</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>299</v>
       </c>
       <c r="H202" t="n">
-        <v>53204</v>
+        <v>53584</v>
       </c>
     </row>
     <row r="203">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>5834</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="206">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>2669</v>
       </c>
       <c r="H215" t="n">
-        <v>54498</v>
+        <v>54551</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>919</v>
+        <v>928</v>
       </c>
     </row>
     <row r="218">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>6494</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="222">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>134</v>
       </c>
       <c r="H239" t="n">
-        <v>46989</v>
+        <v>47838</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>3</v>
       </c>
       <c r="H241" t="n">
-        <v>88218</v>
+        <v>88790</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>675</v>
       </c>
       <c r="H251" t="n">
-        <v>60362</v>
+        <v>64494</v>
       </c>
     </row>
     <row r="252">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>14852</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="254">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>5133</v>
       </c>
       <c r="H254" t="n">
-        <v>47644</v>
+        <v>47717</v>
       </c>
     </row>
     <row r="255">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>41116</v>
+        <v>41631</v>
       </c>
     </row>
     <row r="264">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="H266" t="n">
-        <v>13844</v>
+        <v>14111</v>
       </c>
     </row>
     <row r="267">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>3575</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="269">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>17759</v>
+        <v>19766</v>
       </c>
     </row>
     <row r="271">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>595</v>
+        <v>696</v>
       </c>
       <c r="F272" t="n">
         <v>17</v>
@@ -9619,7 +9619,7 @@
         <v>24</v>
       </c>
       <c r="H272" t="n">
-        <v>34298</v>
+        <v>34859</v>
       </c>
     </row>
     <row r="273">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10024,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H284" t="n">
-        <v>19024</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="285">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>19275</v>
+        <v>19532</v>
       </c>
     </row>
     <row r="289">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>17651</v>
+        <v>17826</v>
       </c>
     </row>
     <row r="291">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>74</v>
       </c>
       <c r="H297" t="n">
-        <v>36287</v>
+        <v>36369</v>
       </c>
     </row>
     <row r="298">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>54</v>
       </c>
       <c r="H304" t="n">
-        <v>55551</v>
+        <v>56266</v>
       </c>
     </row>
     <row r="305">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/16</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>394</v>
       </c>
       <c r="H305" t="n">
-        <v>23426</v>
+        <v>23574</v>
       </c>
     </row>
     <row r="306">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>7</v>
       </c>
       <c r="H316" t="n">
-        <v>7368</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="317">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>127</v>
       </c>
       <c r="H336" t="n">
-        <v>33660</v>
+        <v>33856</v>
       </c>
     </row>
     <row r="337">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>16332</v>
+        <v>16766</v>
       </c>
     </row>
     <row r="340">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/06/16</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>35</v>
       </c>
       <c r="H340" t="n">
-        <v>19264</v>
+        <v>20555</v>
       </c>
     </row>
     <row r="341">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>628</v>
       </c>
       <c r="H351" t="n">
-        <v>42708</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="352">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>3346</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="364">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>35</v>
       </c>
       <c r="H365" t="n">
-        <v>62286</v>
+        <v>62950</v>
       </c>
     </row>
     <row r="366">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="368">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>15923</v>
+        <v>16065</v>
       </c>
     </row>
     <row r="374">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>20132</v>
+        <v>20410</v>
       </c>
     </row>
     <row r="385">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>11</v>
       </c>
       <c r="H391" t="n">
-        <v>23799</v>
+        <v>24071</v>
       </c>
     </row>
     <row r="392">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>216</v>
       </c>
       <c r="H394" t="n">
-        <v>198086</v>
+        <v>198193</v>
       </c>
     </row>
     <row r="395">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>417</v>
       </c>
       <c r="H405" t="n">
-        <v>245786</v>
+        <v>247279</v>
       </c>
     </row>
     <row r="406">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>152</v>
       </c>
       <c r="H415" t="n">
-        <v>8465</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="416">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>18228</v>
+        <v>18397</v>
       </c>
     </row>
     <row r="427">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14920,10 +14920,10 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H428" t="n">
-        <v>12406</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="429">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>1751</v>
       </c>
       <c r="H431" t="n">
-        <v>252645</v>
+        <v>252658</v>
       </c>
     </row>
     <row r="432">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/05/04</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="614">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Municipalidad de Dalcahue</t>
+          <t>Municipalidad de Chillán Viejo</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MU079</t>
+          <t>MU043</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU079</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>483</v>
+        <v>48</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>435</v>
+        <v>483</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>18</v>
+        <v>435</v>
       </c>
     </row>
     <row r="618">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>1751</v>
+        <v>18</v>
       </c>
     </row>
     <row r="619">
@@ -21394,30 +21394,30 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E619" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>815</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="620">
@@ -21428,30 +21428,30 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F620" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>815</v>
       </c>
     </row>
     <row r="621">
@@ -21462,17 +21462,17 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Municipalidad de Laja</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>MU131</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>52</v>
+        <v>465</v>
       </c>
     </row>
     <row r="623">
@@ -21530,17 +21530,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de Laja</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU131</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="624">
@@ -21564,17 +21564,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="625">
@@ -21598,17 +21598,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="626">
@@ -21632,17 +21632,17 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="627">
@@ -21666,17 +21666,17 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Municipalidad de Mejillones</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>MU171</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628">
@@ -21700,17 +21700,17 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Municipalidad de Navidad</t>
+          <t>Municipalidad de María Pinto</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>MU180</t>
+          <t>MU167</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629">
@@ -21734,17 +21734,17 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Navidad</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU180</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -21768,17 +21768,17 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21822,10 +21822,10 @@
         <v>0</v>
       </c>
       <c r="G631" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>1200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="632">
@@ -21836,17 +21836,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21856,10 +21856,10 @@
         <v>0</v>
       </c>
       <c r="G632" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H632" t="n">
-        <v>48</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="633">
@@ -21875,12 +21875,12 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="635">
@@ -21938,17 +21938,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637">
@@ -22006,21 +22006,21 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F637" t="n">
         <v>0</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>518</v>
+        <v>29</v>
       </c>
     </row>
     <row r="638">
@@ -22040,21 +22040,21 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F638" t="n">
         <v>0</v>
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>804</v>
+        <v>518</v>
       </c>
     </row>
     <row r="639">
@@ -22074,21 +22074,21 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E639" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F639" t="n">
         <v>0</v>
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>23</v>
+        <v>804</v>
       </c>
     </row>
     <row r="640">
@@ -22108,17 +22108,17 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E640" t="n">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="641">
@@ -22142,17 +22142,17 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -22162,10 +22162,10 @@
         <v>0</v>
       </c>
       <c r="G641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>2681</v>
+        <v>24</v>
       </c>
     </row>
     <row r="642">
@@ -22176,17 +22176,17 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ramón</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>MU301</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E642" t="n">
@@ -22196,10 +22196,10 @@
         <v>0</v>
       </c>
       <c r="G642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="643">
@@ -22210,17 +22210,17 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E643" t="n">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -22244,17 +22244,17 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E644" t="n">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="645">
@@ -22278,17 +22278,17 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E645" t="n">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="646">
@@ -22312,17 +22312,17 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E646" t="n">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>384</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -22346,17 +22346,17 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E647" t="n">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>74</v>
+        <v>384</v>
       </c>
     </row>
     <row r="648">
@@ -22380,17 +22380,17 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E648" t="n">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="649">
@@ -22414,17 +22414,17 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E649" t="n">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650">
@@ -22448,17 +22448,17 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/10</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Universidad de Valparaíso</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>UN007</t>
         </is>
       </c>
       <c r="E650" t="n">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651">
@@ -22482,29 +22482,63 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>0</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr">
+      <c r="C652" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D651" t="inlineStr">
+      <c r="D652" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E651" t="n">
-        <v>0</v>
-      </c>
-      <c r="F651" t="n">
-        <v>0</v>
-      </c>
-      <c r="G651" t="n">
+      <c r="E652" t="n">
+        <v>0</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0</v>
+      </c>
+      <c r="G652" t="n">
         <v>3</v>
       </c>
-      <c r="H651" t="n">
+      <c r="H652" t="n">
         <v>203</v>
       </c>
     </row>

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022/11/18</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>247423</v>
+        <v>248452</v>
       </c>
     </row>
     <row r="80">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>117561</v>
+        <v>117657</v>
       </c>
     </row>
     <row r="96">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>24326</v>
+        <v>24764</v>
       </c>
     </row>
     <row r="153">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>507</v>
       </c>
       <c r="H155" t="n">
-        <v>422190</v>
+        <v>427210</v>
       </c>
     </row>
     <row r="156">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>1398</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="159">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>6578</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="175">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="H180" t="n">
-        <v>56893</v>
+        <v>56912</v>
       </c>
     </row>
     <row r="181">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>73414</v>
+        <v>74361</v>
       </c>
     </row>
     <row r="183">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>159</v>
       </c>
       <c r="H190" t="n">
-        <v>16002</v>
+        <v>18272</v>
       </c>
     </row>
     <row r="191">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>9355</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="201">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>35</v>
       </c>
       <c r="H204" t="n">
-        <v>8372</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="205">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="H207" t="n">
-        <v>37471</v>
+        <v>37816</v>
       </c>
     </row>
     <row r="208">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/14</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>5310</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="211">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="H214" t="n">
-        <v>32493</v>
+        <v>32922</v>
       </c>
     </row>
     <row r="215">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>68</v>
       </c>
       <c r="H222" t="n">
-        <v>14513</v>
+        <v>14994</v>
       </c>
     </row>
     <row r="223">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>19449</v>
+        <v>19494</v>
       </c>
     </row>
     <row r="233">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>5</v>
       </c>
       <c r="H234" t="n">
-        <v>19071</v>
+        <v>19217</v>
       </c>
     </row>
     <row r="235">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>8</v>
       </c>
       <c r="H239" t="n">
-        <v>2706</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>134</v>
       </c>
       <c r="H242" t="n">
-        <v>47838</v>
+        <v>48657</v>
       </c>
     </row>
     <row r="243">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="H244" t="n">
-        <v>88790</v>
+        <v>89498</v>
       </c>
     </row>
     <row r="245">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>191</v>
       </c>
       <c r="H249" t="n">
-        <v>23497</v>
+        <v>23811</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>39</v>
       </c>
       <c r="H250" t="n">
-        <v>8855</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="251">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/06/29</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>5133</v>
       </c>
       <c r="H257" t="n">
-        <v>47939</v>
+        <v>48107</v>
       </c>
     </row>
     <row r="258">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>41631</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="267">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>19766</v>
+        <v>22316</v>
       </c>
     </row>
     <row r="274">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>696</v>
+        <v>820</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -9721,7 +9721,7 @@
         <v>24</v>
       </c>
       <c r="H275" t="n">
-        <v>34859</v>
+        <v>35410</v>
       </c>
     </row>
     <row r="276">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>49</v>
       </c>
       <c r="H284" t="n">
-        <v>9612</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="285">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>3391</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="287">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>19532</v>
+        <v>20066</v>
       </c>
     </row>
     <row r="292">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>14466</v>
+        <v>14777</v>
       </c>
     </row>
     <row r="302">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>54</v>
       </c>
       <c r="H307" t="n">
-        <v>56266</v>
+        <v>56581</v>
       </c>
     </row>
     <row r="308">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/06/16</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10837,13 +10837,13 @@
         <v>76</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G308" t="n">
         <v>394</v>
       </c>
       <c r="H308" t="n">
-        <v>23574</v>
+        <v>23737</v>
       </c>
     </row>
     <row r="309">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>80100</v>
+        <v>80966</v>
       </c>
     </row>
     <row r="317">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>7</v>
       </c>
       <c r="H319" t="n">
-        <v>7494</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="320">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>9</v>
       </c>
       <c r="H322" t="n">
-        <v>11342</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="323">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>638</v>
       </c>
       <c r="H325" t="n">
-        <v>205872</v>
+        <v>206599</v>
       </c>
     </row>
     <row r="326">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/14</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>66</v>
       </c>
       <c r="H334" t="n">
-        <v>5196</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="335">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>17262</v>
+        <v>17341</v>
       </c>
     </row>
     <row r="343">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2024/06/16</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12033,7 +12033,7 @@
         <v>35</v>
       </c>
       <c r="H343" t="n">
-        <v>20555</v>
+        <v>20838</v>
       </c>
     </row>
     <row r="344">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>7</v>
       </c>
       <c r="H348" t="n">
-        <v>11138</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="349">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>19525</v>
+        <v>19631</v>
       </c>
     </row>
     <row r="353">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>11</v>
       </c>
       <c r="H371" t="n">
-        <v>21833</v>
+        <v>22060</v>
       </c>
     </row>
     <row r="372">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>6750</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="375">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>20410</v>
+        <v>20564</v>
       </c>
     </row>
     <row r="388">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>2</v>
       </c>
       <c r="H391" t="n">
-        <v>31214</v>
+        <v>31599</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/14</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13696,10 +13696,10 @@
         <v>76</v>
       </c>
       <c r="G392" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H392" t="n">
-        <v>21453</v>
+        <v>21704</v>
       </c>
     </row>
     <row r="393">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>216</v>
       </c>
       <c r="H397" t="n">
-        <v>200386</v>
+        <v>201142</v>
       </c>
     </row>
     <row r="398">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>2</v>
       </c>
       <c r="H414" t="n">
-        <v>6832</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="415">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>8645</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="417">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>152</v>
       </c>
       <c r="H418" t="n">
-        <v>8728</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>13347</v>
+        <v>13388</v>
       </c>
     </row>
     <row r="420">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>1751</v>
       </c>
       <c r="H434" t="n">
-        <v>253276</v>
+        <v>253655</v>
       </c>
     </row>
     <row r="435">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>70</v>
       </c>
       <c r="H438" t="n">
-        <v>21882</v>
+        <v>22869</v>
       </c>
     </row>
     <row r="439">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>2</v>
       </c>
       <c r="H446" t="n">
-        <v>164743</v>
+        <v>165064</v>
       </c>
     </row>
     <row r="447">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>55</v>
       </c>
       <c r="H449" t="n">
-        <v>106319</v>
+        <v>111460</v>
       </c>
     </row>
     <row r="450">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>22015</v>
+        <v>22240</v>
       </c>
     </row>
     <row r="459">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="476">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>5</v>
       </c>
       <c r="H486" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="487">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F488" t="n">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="489">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="496">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>2</v>
       </c>
       <c r="H532" t="n">
-        <v>1318</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="533">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="556">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="622">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="635">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="650">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="653">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">

--- a/shared/consolidado_historico5.xlsx
+++ b/shared/consolidado_historico5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H661"/>
+  <dimension ref="A1:H663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>9719</v>
+        <v>9909</v>
       </c>
     </row>
     <row r="121">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>24764</v>
+        <v>25317</v>
       </c>
     </row>
     <row r="153">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>152</v>
       </c>
       <c r="H166" t="n">
-        <v>110342</v>
+        <v>110825</v>
       </c>
     </row>
     <row r="167">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>16</v>
       </c>
       <c r="H188" t="n">
-        <v>2484</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="189">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>6752</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="214">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>25</v>
       </c>
       <c r="H217" t="n">
-        <v>46934</v>
+        <v>47248</v>
       </c>
     </row>
     <row r="218">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>6917</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="225">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>13204</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="228">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>8610</v>
+        <v>9066</v>
       </c>
     </row>
     <row r="232">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>19494</v>
+        <v>21053</v>
       </c>
     </row>
     <row r="233">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>32</v>
       </c>
       <c r="H236" t="n">
-        <v>25594</v>
+        <v>25929</v>
       </c>
     </row>
     <row r="237">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>9549</v>
+        <v>9669</v>
       </c>
     </row>
     <row r="241">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>33627</v>
+        <v>34412</v>
       </c>
     </row>
     <row r="265">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>319</v>
       </c>
       <c r="H267" t="n">
-        <v>17522</v>
+        <v>17629</v>
       </c>
     </row>
     <row r="268">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>43</v>
       </c>
       <c r="H276" t="n">
-        <v>20108</v>
+        <v>20388</v>
       </c>
     </row>
     <row r="277">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>2564</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="284">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>116</v>
       </c>
       <c r="H287" t="n">
-        <v>19456</v>
+        <v>19973</v>
       </c>
     </row>
     <row r="288">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>8347</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="293">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>213</v>
       </c>
       <c r="H302" t="n">
-        <v>44084</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="303">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>34514</v>
+        <v>34896</v>
       </c>
     </row>
     <row r="322">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>638</v>
       </c>
       <c r="H325" t="n">
-        <v>206599</v>
+        <v>206967</v>
       </c>
     </row>
     <row r="326">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>12414</v>
+        <v>12702</v>
       </c>
     </row>
     <row r="341">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>1091</v>
       </c>
       <c r="H356" t="n">
-        <v>49906</v>
+        <v>49935</v>
       </c>
     </row>
     <row r="357">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>2</v>
       </c>
       <c r="H362" t="n">
-        <v>4610</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="363">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>35</v>
       </c>
       <c r="H368" t="n">
-        <v>62950</v>
+        <v>63521</v>
       </c>
     </row>
     <row r="369">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>16331</v>
+        <v>16349</v>
       </c>
     </row>
     <row r="377">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>17455</v>
+        <v>17673</v>
       </c>
     </row>
     <row r="386">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>216</v>
       </c>
       <c r="H397" t="n">
-        <v>201142</v>
+        <v>201169</v>
       </c>
     </row>
     <row r="398">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>558</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="443">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>363</v>
+        <v>558</v>
       </c>
     </row>
     <row r="454">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>791</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="457">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="486">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17994,17 +17994,17 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
+          <t>Servicio Local de Educación Pública Valdivia</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>AK010</t>
+          <t>AJ046</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -18028,17 +18028,17 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Instituto de Previsión Social (IPS)</t>
+          <t>Corporación de Asistencia Judicial Regiones Tarapacá y Antofagasta (CAJTA)</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>AL005</t>
+          <t>AK010</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>369</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521">
@@ -18062,17 +18062,17 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Instituto de Seguridad Laboral (ISL)</t>
+          <t>Instituto de Previsión Social (IPS)</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>AL006</t>
+          <t>AL005</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="522">
@@ -18096,17 +18096,17 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
+          <t>Instituto de Seguridad Laboral (ISL)</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>AL007</t>
+          <t>AL006</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>105</v>
+        <v>391</v>
       </c>
     </row>
     <row r="523">
@@ -18130,17 +18130,17 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Superintendencia de Pensiones (SP)</t>
+          <t>Servicio Nacional de Capacitación y Empleo (SENCE)</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>AL008</t>
+          <t>AL007</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="524">
@@ -18164,17 +18164,17 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Superintendencia de Seguridad Social (SUSESO)</t>
+          <t>Superintendencia de Pensiones (SP)</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>AL009</t>
+          <t>AL008</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="525">
@@ -18198,17 +18198,17 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
+          <t>Superintendencia de Seguridad Social (SUSESO)</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>AO003</t>
+          <t>AL009</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>7097</v>
+        <v>32</v>
       </c>
     </row>
     <row r="526">
@@ -18232,17 +18232,17 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Servicio de Salud Antofagasta</t>
+          <t>Central de Abastecimiento del Sistema Nacional de Servicios de Salud (CENABAST)</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>AO018</t>
+          <t>AO003</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>9</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="527">
@@ -18271,12 +18271,12 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Servicio de Salud Atacama</t>
+          <t>Servicio de Salud Antofagasta</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>AO019</t>
+          <t>AO018</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528">
@@ -18300,17 +18300,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Servicio de Salud Bíobío</t>
+          <t>Servicio de Salud Atacama</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>AO029</t>
+          <t>AO019</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529">
@@ -18334,17 +18334,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Tarapacá</t>
+          <t>Servicio de Salud Bíobío</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>AO040</t>
+          <t>AO029</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="530">
@@ -18373,12 +18373,12 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>SEREMI de Salud  de Tarapacá</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>AO040</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>212</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
@@ -18407,12 +18407,12 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="532">
@@ -18436,17 +18436,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Hospital Regional Coyhaique</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>AO059</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -18456,10 +18456,10 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>1376</v>
+        <v>19</v>
       </c>
     </row>
     <row r="533">
@@ -18470,17 +18470,17 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
+          <t>Hospital Regional Coyhaique</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>AO082</t>
+          <t>AO059</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -18490,10 +18490,10 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H533" t="n">
-        <v>169</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="534">
@@ -18504,17 +18504,17 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Hospital Herminda Martin</t>
+          <t>Hospital Clínico Magallanes Dr Lautaro Navarro Aravia</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>AO104</t>
+          <t>AO082</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
     <row r="535">
@@ -18543,12 +18543,12 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Hospital Herminda Martin</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>AO104</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="536">
@@ -18572,17 +18572,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>SERVIU Región de Antofagasta</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>AP003</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="537">
@@ -18606,17 +18606,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2018/02/14</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>SERVIU Metropolitano</t>
+          <t>SERVIU Región de Antofagasta</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>AP007</t>
+          <t>AP003</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="538">
@@ -18640,17 +18640,17 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
+          <t>SERVIU Metropolitano</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>AP008</t>
+          <t>AP007</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -18660,10 +18660,10 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="539">
@@ -18674,17 +18674,17 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
+          <t>SERVIU Región del Libertador Bernardo OHiggins</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>AP014</t>
+          <t>AP008</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -18694,10 +18694,10 @@
         <v>0</v>
       </c>
       <c r="G539" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="540">
@@ -18708,17 +18708,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2018/09/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>SERVIU Región de Arica y Parinacota</t>
+          <t>SERVIU Región de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>AP016</t>
+          <t>AP014</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -18742,17 +18742,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>SERVIU Región del Ñuble</t>
+          <t>SERVIU Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>AP018</t>
+          <t>AP016</t>
         </is>
       </c>
       <c r="E541" t="n">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542">
@@ -18776,17 +18776,17 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Subsecretaría de Agricultura</t>
+          <t>SERVIU Región del Ñuble</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>AR001</t>
+          <t>AP018</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543">
@@ -18810,17 +18810,17 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Riego (CNR)</t>
+          <t>Subsecretaría de Agricultura</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>AR002</t>
+          <t>AR001</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>213</v>
+        <v>284</v>
       </c>
     </row>
     <row r="544">
@@ -18844,30 +18844,30 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
+          <t>Comisión Nacional de Riego (CNR)</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>AR005</t>
+          <t>AR002</t>
         </is>
       </c>
       <c r="E544" t="n">
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G544" t="n">
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>127</v>
+        <v>213</v>
       </c>
     </row>
     <row r="545">
@@ -18878,30 +18878,30 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
+          <t>Oficinas de Estudios y Políticas Agrarias (ODEPA)</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>AT001</t>
+          <t>AR005</t>
         </is>
       </c>
       <c r="E545" t="n">
         <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="546">
@@ -18912,17 +18912,17 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Consejo de Defensa del Estado (CDE)</t>
+          <t>Servicio Nacional de la Mujer y la Equidad de Género (SERNAMEG)</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>AX001</t>
+          <t>AT001</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="547">
@@ -18946,17 +18946,17 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
+          <t>Consejo de Defensa del Estado (CDE)</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>AY001</t>
+          <t>AX001</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="548">
@@ -18985,12 +18985,12 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Subsecretaría del Deporte</t>
+          <t>Instituto Nacional de Propiedad Industrial (INAPI)</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>BA001</t>
+          <t>AY001</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -19014,17 +19014,17 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Subsecretaría del Patrimonio Cultural</t>
+          <t>Subsecretaría del Deporte</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>BC002</t>
+          <t>BA001</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="550">
@@ -19053,12 +19053,12 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Subsecretaría del Patrimonio Cultural</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>BC002</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="551">
@@ -19082,17 +19082,17 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>CFT Estatal de la Región del Maule</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>CF002</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="552">
@@ -19116,17 +19116,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>CFT de la Región del Tarapacá</t>
+          <t>CFT Estatal de la Región del Maule</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>CF003</t>
+          <t>CF002</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="553">
@@ -19150,17 +19150,17 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>CFT de la Región de Los Ríos</t>
+          <t>CFT de la Región del Tarapacá</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>CF004</t>
+          <t>CF003</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="554">
@@ -19184,17 +19184,17 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>CFT de la Región de los Lagos</t>
+          <t>CFT de la Región de Los Ríos</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>CF005</t>
+          <t>CF004</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="555">
@@ -19218,17 +19218,17 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>CFT de la Región de los Lagos</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>CF006</t>
+          <t>CF005</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="556">
@@ -19252,17 +19252,17 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>CFT de la Región de Valparaíso</t>
+          <t>CFT de la Región de Coquimbo</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>CF007</t>
+          <t>CF006</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="557">
@@ -19286,30 +19286,30 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>CFT de la Región de Antofagasta</t>
+          <t>CFT de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>CF009</t>
+          <t>CF007</t>
         </is>
       </c>
       <c r="E557" t="n">
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G557" t="n">
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558">
@@ -19320,17 +19320,17 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
+          <t>CFT de la Región de Antofagasta</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CM002</t>
+          <t>CF009</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="559">
@@ -19354,30 +19354,30 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Corporación Municipal Isla de Maipo</t>
+          <t>Corporación Municipal de Desarrollo Social de Antofagasta (CMDS)</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>CM003</t>
+          <t>CM002</t>
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G559" t="n">
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="560">
@@ -19388,21 +19388,21 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Rancagua (CORMUN)</t>
+          <t>Corporación Municipal Isla de Maipo</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>CM008</t>
+          <t>CM003</t>
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F560" t="n">
         <v>0</v>
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="561">
@@ -19422,17 +19422,17 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
+          <t>Corporación Municipal de Rancagua (CORMUN)</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>CM009</t>
+          <t>CM008</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="562">
@@ -19456,17 +19456,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
+          <t>Corporación Municipal para el Desarrollo Social de Villa Alemana</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>CM010</t>
+          <t>CM009</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="563">
@@ -19490,17 +19490,17 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Castro</t>
+          <t>Corporación Municipal de San Fernando (CORMUSAF)</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>CM011</t>
+          <t>CM010</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="564">
@@ -19524,30 +19524,30 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Valparaíso</t>
+          <t>Corporación Municipal de Castro</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>CM015</t>
+          <t>CM011</t>
         </is>
       </c>
       <c r="E564" t="n">
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="565">
@@ -19558,30 +19558,30 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Corporación Municipal de La Reina</t>
+          <t>Corporación Municipal de Valparaíso</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>CM017</t>
+          <t>CM015</t>
         </is>
       </c>
       <c r="E565" t="n">
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G565" t="n">
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -19592,17 +19592,17 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quilpué</t>
+          <t>Corporación Municipal de La Reina</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>CM019</t>
+          <t>CM017</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>468</v>
+        <v>8</v>
       </c>
     </row>
     <row r="567">
@@ -19626,17 +19626,17 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
+          <t>Corporación Municipal de Quilpué</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>CM020</t>
+          <t>CM019</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>14</v>
+        <v>468</v>
       </c>
     </row>
     <row r="568">
@@ -19660,17 +19660,17 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2023/05/16</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
+          <t>Corporación de Educación Salud y Atención de Menores Chonchi Chiloé</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>CM022</t>
+          <t>CM020</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569">
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2023/05/16</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Ancud</t>
+          <t>Corporación de Desarrollo Social de Cerro Navia (CORMUCENA)</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>CM024</t>
+          <t>CM022</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -19728,17 +19728,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de Buin</t>
+          <t>Corporación Municipal de Ancud</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>CM025</t>
+          <t>CM024</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="571">
@@ -19762,17 +19762,17 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Corporación de Desarrollo Social de Buin</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>CM025</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -19796,17 +19796,17 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Quinta Normal</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>CM029</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="573">
@@ -19830,17 +19830,17 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Corporación Municipal de Quinta Normal</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>CM029</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574">
@@ -19864,30 +19864,30 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Melipilla</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>CM042</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G574" t="n">
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575">
@@ -19898,17 +19898,17 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Corporación Municipal de Calera De Tango</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>CM035</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -19932,30 +19932,30 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Renca</t>
+          <t>Corporación Municipal de Melipilla</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>CM048</t>
+          <t>CM042</t>
         </is>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G576" t="n">
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="577">
@@ -19966,17 +19966,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="578">
@@ -20000,17 +20000,17 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte Rancagua</t>
+          <t>Corporación Municipal de Renca</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>CM059</t>
+          <t>CM048</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -20034,17 +20034,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Estación Central</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>CM069</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="580">
@@ -20068,17 +20068,17 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Deportes Rancagua</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM059</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581">
@@ -20102,17 +20102,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Teno</t>
+          <t>Corporación Cultural de Estación Central</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>CM090</t>
+          <t>CM069</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -20136,17 +20136,17 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Vicuña</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>CM091</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -20170,17 +20170,17 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Corporación Cultural Isla de Maipo</t>
+          <t>Corporación Cultural de Teno</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>CM094</t>
+          <t>CM090</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -20204,17 +20204,17 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Ovalle</t>
+          <t>Corporación Cultural Municipal de Vicuña</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>CM100</t>
+          <t>CM091</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585">
@@ -20238,17 +20238,17 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Corporación Cultural Municipal de Puente Alto</t>
+          <t>Corporación Cultural Isla de Maipo</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>CM103</t>
+          <t>CM094</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -20272,17 +20272,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Corporación de Deportes y Recreación de Peñalolén</t>
+          <t>Corporación Cultural Municipal de Ovalle</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>CM133</t>
+          <t>CM100</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587">
@@ -20306,17 +20306,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de La Municipalidad de Aysén</t>
+          <t>Corporación Cultural Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>CM144</t>
+          <t>CM103</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -20340,17 +20340,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Corporación del Deporte de Pichidegua</t>
+          <t>Corporación de Deportes y Recreación de Peñalolén</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>CM146</t>
+          <t>CM133</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589">
@@ -20374,17 +20374,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2023/04/13</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Corporación Municipal del Deporte de Vitacura</t>
+          <t>Corporación del Deporte de La Municipalidad de Aysén</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>CM175</t>
+          <t>CM144</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -20408,17 +20408,17 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deporte de Romeral</t>
+          <t>Corporación del Deporte de Pichidegua</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>CM177</t>
+          <t>CM146</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -20442,17 +20442,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2023/04/13</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Cultura San Clemente</t>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>CM191</t>
+          <t>CM175</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="592">
@@ -20476,17 +20476,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
+          <t>Corporación Municipal de Deporte de Romeral</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>CM202</t>
+          <t>CM177</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593">
@@ -20510,17 +20510,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
+          <t>Corporación Municipal de Cultura San Clemente</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>CM204</t>
+          <t>CM191</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="594">
@@ -20544,17 +20544,17 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Corporación de Desarrollo Social de la Municipalidad de Independencia</t>
+          <t>Corporación Municipal de Deportes y Recreación de Molina</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>CM207</t>
+          <t>CM202</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -20578,17 +20578,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Corporación Municipal de innovación y desarrollo económico y social de SAN JOAQUÍN</t>
+          <t>Corporación Municipal de Deportes y Recreación de Talcahuano</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>CM210</t>
+          <t>CM204</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="596">
@@ -20612,17 +20612,17 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
+          <t>Corporación de Desarrollo Social de la Municipalidad de Independencia</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>CM219</t>
+          <t>CM207</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -20646,17 +20646,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
+          <t>Corporación Municipal de innovación y desarrollo económico y social de SAN JOAQUÍN</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>CM250</t>
+          <t>CM210</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -20680,30 +20680,30 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
+          <t>Corporación Municipal de Fomento Al Desarrollo Económico y Productivo de Estación Central</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>CM269</t>
+          <t>CM219</t>
         </is>
       </c>
       <c r="E598" t="n">
         <v>0</v>
       </c>
       <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H598" t="n">
         <v>2</v>
-      </c>
-      <c r="G598" t="n">
-        <v>0</v>
-      </c>
-      <c r="H598" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="599">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
+          <t>Corporación de Deportes de la Ilustre Municipalidad de Curicó</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>CM278</t>
+          <t>CM250</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="600">
@@ -20748,30 +20748,30 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de San Clemente</t>
+          <t>Corporación Municipal Pueblito de Las Vizcachas</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>CM283</t>
+          <t>CM269</t>
         </is>
       </c>
       <c r="E600" t="n">
         <v>0</v>
       </c>
       <c r="F600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G600" t="n">
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="601">
@@ -20782,17 +20782,17 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Reinserción Social Juvenil</t>
+          <t>Corporación Social y Cultural de Concepción (SEMCO)</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>CO007</t>
+          <t>CM278</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="602">
@@ -20816,17 +20816,17 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Consejo para la Transparencia (CPLT)</t>
+          <t>Corporación de Deportes de San Clemente</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>CT001</t>
+          <t>CM283</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="603">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Comercializadora de Trigo COTRISA</t>
+          <t>Servicio Nacional de Reinserción Social Juvenil</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>EP029</t>
+          <t>CO007</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="604">
@@ -20884,30 +20884,30 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Consejo para la Transparencia (CPLT)</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="E604" t="n">
         <v>0</v>
       </c>
       <c r="F604" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>187</v>
+        <v>104</v>
       </c>
     </row>
     <row r="605">
@@ -20918,17 +20918,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
+          <t>Comercializadora de Trigo COTRISA</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>FU003</t>
+          <t>EP029</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606">
@@ -20952,30 +20952,30 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>FU009</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E606" t="n">
         <v>0</v>
       </c>
       <c r="F606" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G606" t="n">
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="607">
@@ -20986,17 +20986,17 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>FU003</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -21020,17 +21020,17 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Corporación Regional de Desarrollo Productivo de la Región de Tarapacá</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>FU009</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -21054,17 +21054,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/07/06</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>FU022</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -21088,17 +21088,17 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Corporación Teatro Regional Del Biobío</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>FU027</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -21122,17 +21122,17 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/06</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -21156,17 +21156,17 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
+          <t>Corporación Teatro Regional Del Biobío</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>MA023</t>
+          <t>FU027</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -21190,17 +21190,17 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>MA024</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -21224,17 +21224,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Bio Bio Centro</t>
+          <t>Asociación de Municipalidades de la Región de Valparaíso</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>MA038</t>
+          <t>MA023</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -21258,17 +21258,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades del Valle del Itata</t>
+          <t>Asociación de Municipalidades de la Provincia de Osorno</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>MA040</t>
+          <t>MA024</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -21292,17 +21292,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
+          <t>Asociación de Municipalidades Bio Bio Centro</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>MA058</t>
+          <t>MA038</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="617">
@@ -21326,17 +21326,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades del Valle del Itata</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA040</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618">
@@ -21360,17 +21360,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Municipalidad de Cabildo</t>
+          <t>Asociación de Municipalidades Cordilleranas de la Araucanía</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>MU016</t>
+          <t>MA058</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619">
@@ -21394,17 +21394,17 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Municipalidad de Calle Larga</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>MU023</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="620">
@@ -21428,17 +21428,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Municipalidad de Cartagena</t>
+          <t>Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>MU029</t>
+          <t>MU016</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>27</v>
+        <v>271</v>
       </c>
     </row>
     <row r="621">
@@ -21462,30 +21462,30 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Municipalidad de Chaitén</t>
+          <t>Municipalidad de Calle Larga</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>MU036</t>
+          <t>MU023</t>
         </is>
       </c>
       <c r="E621" t="n">
         <v>0</v>
       </c>
       <c r="F621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G621" t="n">
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>626</v>
+        <v>110</v>
       </c>
     </row>
     <row r="622">
@@ -21496,17 +21496,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Municipalidad de Chillán Viejo</t>
+          <t>Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>MU043</t>
+          <t>MU029</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="623">
@@ -21530,30 +21530,30 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Municipalidad de Dalcahue</t>
+          <t>Municipalidad de Chaitén</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>MU079</t>
+          <t>MU036</t>
         </is>
       </c>
       <c r="E623" t="n">
         <v>0</v>
       </c>
       <c r="F623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G623" t="n">
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>48</v>
+        <v>626</v>
       </c>
     </row>
     <row r="624">
@@ -21564,17 +21564,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Municipalidad de El Quisco</t>
+          <t>Municipalidad de Chillán Viejo</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>MU085</t>
+          <t>MU043</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>508</v>
+        <v>49</v>
       </c>
     </row>
     <row r="625">
@@ -21598,17 +21598,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Municipalidad de Fresia</t>
+          <t>Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>MU093</t>
+          <t>MU079</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>435</v>
+        <v>48</v>
       </c>
     </row>
     <row r="626">
@@ -21632,17 +21632,17 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2016/07/11</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Municipalidad de General Lagos</t>
+          <t>Municipalidad de El Quisco</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>MU098</t>
+          <t>MU085</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>18</v>
+        <v>508</v>
       </c>
     </row>
     <row r="627">
@@ -21666,17 +21666,17 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Municipalidad de La Cisterna</t>
+          <t>Municipalidad de Fresia</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>MU117</t>
+          <t>MU093</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>1766</v>
+        <v>435</v>
       </c>
     </row>
     <row r="628">
@@ -21700,30 +21700,30 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2016/07/11</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Municipalidad de La Florida</t>
+          <t>Municipalidad de General Lagos</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>MU120</t>
+          <t>MU098</t>
         </is>
       </c>
       <c r="E628" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>824</v>
+        <v>18</v>
       </c>
     </row>
     <row r="629">
@@ -21734,17 +21734,17 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2021/09/01</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Municipalidad de La Granja</t>
+          <t>Municipalidad de La Cisterna</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>MU121</t>
+          <t>MU117</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="630">
@@ -21768,30 +21768,30 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Municipalidad de La Florida</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>MU120</t>
         </is>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F630" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H630" t="n">
-        <v>465</v>
+        <v>824</v>
       </c>
     </row>
     <row r="631">
@@ -21802,17 +21802,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2021/09/01</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Municipalidad de Laja</t>
+          <t>Municipalidad de La Granja</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>MU131</t>
+          <t>MU121</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -21836,17 +21836,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Municipalidad de Llanquihue</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>MU142</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>13</v>
+        <v>465</v>
       </c>
     </row>
     <row r="633">
@@ -21870,17 +21870,17 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de Laja</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU131</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="634">
@@ -21904,17 +21904,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de Llanquihue</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU142</t>
         </is>
       </c>
       <c r="E634" t="n">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="635">
@@ -21938,21 +21938,21 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Lagos</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>MU154</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F635" t="n">
         <v>0</v>
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="636">
@@ -21972,17 +21972,17 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="637">
@@ -22011,16 +22011,16 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Municipalidad de María Pinto</t>
+          <t>Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>MU167</t>
+          <t>MU154</t>
         </is>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F637" t="n">
         <v>0</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="638">
@@ -22045,12 +22045,12 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Municipalidad de Navidad</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>MU180</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E638" t="n">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="639">
@@ -22079,12 +22079,12 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de María Pinto</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU167</t>
         </is>
       </c>
       <c r="E639" t="n">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640">
@@ -22108,17 +22108,17 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de Navidad</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU180</t>
         </is>
       </c>
       <c r="E640" t="n">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -22142,17 +22142,17 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Municipalidad de Peumo</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>MU216</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -22162,10 +22162,10 @@
         <v>0</v>
       </c>
       <c r="G641" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>1200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="642">
@@ -22176,17 +22176,17 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Municipalidad de Pica</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>MU217</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E642" t="n">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="643">
@@ -22210,17 +22210,17 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Municipalidad de Pozo Almonte</t>
+          <t>Municipalidad de Peumo</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>MU226</t>
+          <t>MU216</t>
         </is>
       </c>
       <c r="E643" t="n">
@@ -22230,10 +22230,10 @@
         <v>0</v>
       </c>
       <c r="G643" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H643" t="n">
-        <v>40</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="644">
@@ -22244,17 +22244,17 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Municipalidad de Puerto Octay</t>
+          <t>Municipalidad de Pica</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>MU235</t>
+          <t>MU217</t>
         </is>
       </c>
       <c r="E644" t="n">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="645">
@@ -22278,17 +22278,17 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Municipalidad de Purranque</t>
+          <t>Municipalidad de Pozo Almonte</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>MU242</t>
+          <t>MU226</t>
         </is>
       </c>
       <c r="E645" t="n">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="646">
@@ -22312,17 +22312,17 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Puerto Octay</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU235</t>
         </is>
       </c>
       <c r="E646" t="n">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>31</v>
+        <v>231</v>
       </c>
     </row>
     <row r="647">
@@ -22346,21 +22346,21 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Municipalidad de Puyehue</t>
+          <t>Municipalidad de Purranque</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>MU245</t>
+          <t>MU242</t>
         </is>
       </c>
       <c r="E647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F647" t="n">
         <v>0</v>
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>522</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648">
@@ -22380,21 +22380,21 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Municipalidad de Quinta Normal</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>MU257</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E648" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F648" t="n">
         <v>0</v>
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>804</v>
+        <v>31</v>
       </c>
     </row>
     <row r="649">
@@ -22414,21 +22414,21 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>MU245</t>
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F649" t="n">
         <v>0</v>
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>29</v>
+        <v>522</v>
       </c>
     </row>
     <row r="650">
@@ -22448,21 +22448,21 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Municipalidad de Requínoa</t>
+          <t>Municipalidad de Quinta Normal</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>MU267</t>
+          <t>MU257</t>
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F650" t="n">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>24</v>
+        <v>804</v>
       </c>
     </row>
     <row r="651">
@@ -22482,17 +22482,17 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E651" t="n">
@@ -22502,10 +22502,10 @@
         <v>0</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>2701</v>
+        <v>29</v>
       </c>
     </row>
     <row r="652">
@@ -22516,17 +22516,17 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ramón</t>
+          <t>Municipalidad de Requínoa</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>MU301</t>
+          <t>MU267</t>
         </is>
       </c>
       <c r="E652" t="n">
@@ -22550,17 +22550,17 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Municipalidad de Taltal</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>MU314</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E653" t="n">
@@ -22570,10 +22570,10 @@
         <v>0</v>
       </c>
       <c r="G653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H653" t="n">
-        <v>4</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="654">
@@ -22584,17 +22584,17 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E654" t="n">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="655">
@@ -22618,17 +22618,17 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Taltal</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU314</t>
         </is>
       </c>
       <c r="E655" t="n">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656">
@@ -22652,17 +22652,17 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Municipalidad de Tome</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>MU324</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E656" t="n">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>401</v>
+        <v>62</v>
       </c>
     </row>
     <row r="657">
@@ -22686,17 +22686,17 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E657" t="n">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="658">
@@ -22720,17 +22720,17 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Tome</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU324</t>
         </is>
       </c>
       <c r="E658" t="n">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>7</v>
+        <v>401</v>
       </c>
     </row>
     <row r="659">
@@ -22754,17 +22754,17 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Universidad de Valparaíso</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>UN007</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E659" t="n">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="660">
@@ -22788,17 +22788,17 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Universidad de Aysén</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>UN017</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E660" t="n">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="661">
@@ -22822,29 +22822,97 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Universidad de Valparaíso</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>UN007</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>0</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H661" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Universidad de Aysén</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>UN017</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>0</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0</v>
+      </c>
+      <c r="H662" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>TA_Licitaciones</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
           <t>2024/03/21</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr">
+      <c r="C663" t="inlineStr">
         <is>
           <t>Universidad de OHiggins</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
+      <c r="D663" t="inlineStr">
         <is>
           <t>UN018</t>
         </is>
       </c>
-      <c r="E661" t="n">
-        <v>0</v>
-      </c>
-      <c r="F661" t="n">
-        <v>0</v>
-      </c>
-      <c r="G661" t="n">
+      <c r="E663" t="n">
+        <v>0</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0</v>
+      </c>
+      <c r="G663" t="n">
         <v>3</v>
       </c>
-      <c r="H661" t="n">
+      <c r="H663" t="n">
         <v>203</v>
       </c>
     </row>
